--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>16-12-2022</t>
+          <t>30-12-2022</t>
         </is>
       </c>
     </row>
@@ -447,7 +447,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3578132.07</v>
+        <v>8021582.87</v>
       </c>
     </row>
     <row r="3">
@@ -457,7 +457,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127790.43</v>
+        <v>170671.98</v>
       </c>
     </row>
     <row r="4">
@@ -467,7 +467,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263838.39</v>
+        <v>274442.53</v>
       </c>
     </row>
     <row r="5">
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109046.85</v>
+        <v>109101.47</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>160644.28</v>
+        <v>120572.61</v>
       </c>
     </row>
     <row r="7">
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198270.08</v>
+        <v>198019.15</v>
       </c>
     </row>
     <row r="8">
@@ -507,7 +507,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68609.00999999999</v>
+        <v>75580.53</v>
       </c>
     </row>
     <row r="9">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145192.56</v>
+        <v>145631.62</v>
       </c>
     </row>
     <row r="10">
@@ -527,7 +527,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198507.79</v>
+        <v>198401.83</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>270188.2</v>
+        <v>272522.47</v>
       </c>
     </row>
     <row r="12">
@@ -547,7 +547,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>242510.47</v>
+        <v>235187.64</v>
       </c>
     </row>
     <row r="13">
@@ -557,7 +557,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>197535.88</v>
+        <v>185409.77</v>
       </c>
     </row>
     <row r="14">
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233277.02</v>
+        <v>233463.96</v>
       </c>
     </row>
     <row r="15">
@@ -577,7 +577,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172148.76</v>
+        <v>172274.55</v>
       </c>
     </row>
     <row r="16">
@@ -587,7 +587,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119796.9</v>
+        <v>119486.88</v>
       </c>
     </row>
     <row r="17">
@@ -597,7 +597,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122748.63</v>
+        <v>122767.32</v>
       </c>
     </row>
     <row r="18">
@@ -607,7 +607,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>128960.57</v>
+        <v>137863.47</v>
       </c>
     </row>
     <row r="19">
@@ -617,7 +617,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137680.71</v>
+        <v>137676.49</v>
       </c>
     </row>
     <row r="20">
@@ -627,7 +627,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76359.27</v>
+        <v>76454.31</v>
       </c>
     </row>
     <row r="21">
@@ -637,7 +637,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31401.23</v>
+        <v>31393.9</v>
       </c>
     </row>
     <row r="22">
@@ -647,7 +647,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>54893.06</v>
+        <v>62213.87</v>
       </c>
     </row>
     <row r="23">
@@ -657,7 +657,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>38395.42</v>
+        <v>36674.37</v>
       </c>
     </row>
     <row r="24">
@@ -667,7 +667,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>72932.07000000001</v>
+        <v>62891.57</v>
       </c>
     </row>
     <row r="25">
@@ -677,7 +677,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>78827.19</v>
+        <v>127158.66</v>
       </c>
     </row>
     <row r="26">
@@ -687,7 +687,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58832.63</v>
+        <v>58852.23</v>
       </c>
     </row>
     <row r="27">
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19250.61</v>
+        <v>19233.78</v>
       </c>
     </row>
     <row r="28">
@@ -707,7 +707,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>281336.33</v>
+        <v>328039.87</v>
       </c>
     </row>
     <row r="29">
@@ -717,7 +717,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>33750.25</v>
+        <v>33759.6</v>
       </c>
     </row>
     <row r="30">
@@ -727,7 +727,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9262.540000000001</v>
+        <v>9261.33</v>
       </c>
     </row>
     <row r="31">
@@ -737,7 +737,197 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53935.37</v>
+        <v>53933.48</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
+        <is>
+          <t>CMA acciones</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>50308.82</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
+        <is>
+          <t>Delta acciones</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>74511.12</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
+        <is>
+          <t>Delta inter</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>1346.69</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
+        <is>
+          <t>Delta Latam</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>3611.3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
+        <is>
+          <t>Delta Select</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>394209.96</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
+        <is>
+          <t>Lombardi</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>35229.25</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
+        <is>
+          <t>MAF</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>58341.97</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Superfondo </t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>1098920.59</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
+        <is>
+          <t>Alpha planeam equil</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>6651.55</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>Alpha renta balan global</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>469640.22</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
+        <is>
+          <t>Delta gestion V</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>162537.45</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>15190.56</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>Arpenta ex Mercosur</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>10598.36</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>Supergestion</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>97164.08</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>Compass Crecim</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>705424.67</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
+        <is>
+          <t>Goal acciones plus</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>6552</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
+        <is>
+          <t>Ieb Value</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>9261.33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
+        <is>
+          <t>Schroeder RV</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>669480.97</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>Supefondo RV</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>514332.72</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,275 +439,357 @@
           <t>30-12-2022</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>8021582.87</v>
+        <v>127158.66</v>
+      </c>
+      <c r="C2" t="n">
+        <v>127119.16</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>170671.98</v>
+        <v>274442.53</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278044.48</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Adcap</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>274442.53</v>
+        <v>58852.23</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58845.08</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109101.47</v>
+        <v>36674.37</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39837.91</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>120572.61</v>
+        <v>109101.47</v>
+      </c>
+      <c r="C6" t="n">
+        <v>108971.22</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>198019.15</v>
+        <v>120572.61</v>
+      </c>
+      <c r="C7" t="n">
+        <v>156909.19</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75580.53</v>
+        <v>6651.55</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6660.79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>145631.62</v>
+        <v>469640.22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>469823.83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>198401.83</v>
+        <v>19233.78</v>
+      </c>
+      <c r="C10" t="n">
+        <v>17157.68</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>272522.47</v>
+        <v>10598.36</v>
+      </c>
+      <c r="C11" t="n">
+        <v>10593.73</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>235187.64</v>
+        <v>198019.15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>254254.97</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185409.77</v>
-      </c>
+        <v>75580.53</v>
+      </c>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>233463.96</v>
+        <v>50308.82</v>
+      </c>
+      <c r="C14" t="n">
+        <v>50132.93</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Compass Crecim</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>172274.55</v>
+        <v>705424.67</v>
+      </c>
+      <c r="C15" t="n">
+        <v>691572.96</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>119486.88</v>
+        <v>145631.62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>145015.28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>122767.32</v>
+        <v>198401.83</v>
+      </c>
+      <c r="C17" t="n">
+        <v>198285.29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta Latam</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>137863.47</v>
+        <v>3611.3</v>
+      </c>
+      <c r="C18" t="n">
+        <v>3549.04</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>137676.49</v>
+        <v>394209.96</v>
+      </c>
+      <c r="C19" t="n">
+        <v>394376.61</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Delta acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76454.31</v>
+        <v>74511.12</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74425.36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>31393.9</v>
+        <v>162537.45</v>
+      </c>
+      <c r="C21" t="n">
+        <v>162599.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Delta inter</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>62213.87</v>
+        <v>1346.69</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1350.57</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>36674.37</v>
+        <v>137863.47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>158535.18</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>62891.57</v>
+        <v>137676.49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>155943.39</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>127158.66</v>
+        <v>272522.47</v>
+      </c>
+      <c r="C25" t="n">
+        <v>291688.7</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Adcap</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58852.23</v>
+        <v>235187.64</v>
+      </c>
+      <c r="C26" t="n">
+        <v>240254.59</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Gainvest</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>19233.78</v>
+        <v>328039.87</v>
+      </c>
+      <c r="C27" t="n">
+        <v>328136.08</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Gainvest</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>328039.87</v>
+          <t>Galileo</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2070784.18</v>
       </c>
     </row>
     <row r="29">
@@ -719,215 +801,292 @@
       <c r="B29" t="n">
         <v>33759.6</v>
       </c>
+      <c r="C29" t="n">
+        <v>33770.96</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>IEB</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>9261.33</v>
+        <v>6552</v>
+      </c>
+      <c r="C30" t="n">
+        <v>6549.5</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>53933.48</v>
+        <v>185409.77</v>
+      </c>
+      <c r="C31" t="n">
+        <v>190537.56</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>50308.82</v>
+        <v>233463.96</v>
+      </c>
+      <c r="C32" t="n">
+        <v>243337.28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Delta acciones</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>74511.12</v>
+        <v>62213.87</v>
+      </c>
+      <c r="C33" t="n">
+        <v>55055.52</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Delta inter</t>
+          <t>IEB</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1346.69</v>
+        <v>9261.33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>12858.09</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>Delta Latam</t>
+          <t>Ieb Value</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>3611.3</v>
+        <v>9261.33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>12858.09</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>394209.96</v>
+        <v>35229.25</v>
+      </c>
+      <c r="C36" t="n">
+        <v>36730.42</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>35229.25</v>
+        <v>58341.97</v>
+      </c>
+      <c r="C37" t="n">
+        <v>58335.01</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58341.97</v>
+        <v>53933.48</v>
+      </c>
+      <c r="C38" t="n">
+        <v>53903.51</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1098920.59</v>
+        <v>76454.31</v>
+      </c>
+      <c r="C39" t="n">
+        <v>84374.39</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>6651.55</v>
+        <v>62891.57</v>
+      </c>
+      <c r="C40" t="n">
+        <v>62927.31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>469640.22</v>
+        <v>172274.55</v>
+      </c>
+      <c r="C41" t="n">
+        <v>172138.29</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>162537.45</v>
+        <v>122767.32</v>
+      </c>
+      <c r="C42" t="n">
+        <v>110024.63</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>15190.56</v>
+        <v>119486.88</v>
+      </c>
+      <c r="C43" t="n">
+        <v>119468.33</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>10598.36</v>
+        <v>669480.97</v>
+      </c>
+      <c r="C44" t="n">
+        <v>669264.28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Supergestion</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>97164.08</v>
+        <v>514332.72</v>
+      </c>
+      <c r="C45" t="n">
+        <v>514459.8</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecim</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>705424.67</v>
+        <v>1098920.59</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1098686.84</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Supergestion</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>6552</v>
-      </c>
+        <v>97164.08</v>
+      </c>
+      <c r="C47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Ieb Value</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>9261.33</v>
+        <v>31393.9</v>
+      </c>
+      <c r="C48" t="n">
+        <v>31412.83</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>669480.97</v>
+        <v>15190.56</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15230.95</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>514332.72</v>
+        <v>170671.98</v>
+      </c>
+      <c r="C50" t="n">
+        <v>219060.68</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>total</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>8021582.87</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10076791.22</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:C51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,505 +439,660 @@
           <t>06-01-2023</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>total</t>
+          <t>1810 Renta variable</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>10410690.33</v>
+        <v>127119.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>126964.74</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>1822 Raices Valores Negociables</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>216889.38</v>
+        <v>278044.48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278103.23</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>1810 Renta variable</t>
+          <t>Adcap IOL Acciones Argentina</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>127119.16</v>
+        <v>58845.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58867.61</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>1822 Raices Valores Negociables</t>
+          <t>Allaria Acciones</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>278044.48</v>
+        <v>39837.91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45298</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Adcap IOL Acciones Argentina</t>
+          <t>Alpha Acciones</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>58845.08</v>
+        <v>108971.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>116254.12</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>Allaria Acciones</t>
+          <t>Alpha Latam</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39837.91</v>
+        <v>47.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.63</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Alpha Acciones</t>
+          <t>Alpha Mega</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>108971.22</v>
+        <v>156909.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156874.24</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Alpha Latam</t>
+          <t>Alpha Mercosur</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>47.74</v>
+        <v>267484.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>282623.59</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mega</t>
+          <t>Alpha planeam equil</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>156909.19</v>
+        <v>6660.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6658.4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Alpha Mercosur</t>
+          <t>Alpha renta balan global</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>267484.69</v>
+        <v>469823.83</v>
+      </c>
+      <c r="C11" t="n">
+        <v>470073.19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Alpha planeam equil</t>
+          <t>Argenfunds</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6660.79</v>
+        <v>17157.68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17153.48</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Alpha renta balan global</t>
+          <t>Arpenta ex Mercosur</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>469823.83</v>
+        <v>10593.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10604.76</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Argenfunds</t>
+          <t>Balanz</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>17157.68</v>
+        <v>254254.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260837.5</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>Arpenta ex Mercosur</t>
+          <t>Bull Market</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>10593.73</v>
+        <v>79224.77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83969.24000000001</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Balanz</t>
+          <t>CMA acciones</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>254254.97</v>
+        <v>50132.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91430.75999999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>Bull Market</t>
+          <t>Compass Crecimiento</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>79224.77</v>
+        <v>691572.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>691866.86</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>CMA acciones</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>50132.93</v>
+        <v>145015.28</v>
+      </c>
+      <c r="C18" t="n">
+        <v>145634.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Compass Crecimiento</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>691572.96</v>
+        <v>198285.29</v>
+      </c>
+      <c r="C19" t="n">
+        <v>198350.01</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>145015.28</v>
+        <v>74425.36</v>
+      </c>
+      <c r="C20" t="n">
+        <v>74377.03999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>198285.29</v>
+        <v>1350.57</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1350.43</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>74425.36</v>
+        <v>3549.04</v>
+      </c>
+      <c r="C22" t="n">
+        <v>3546.75</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1350.57</v>
+        <v>394376.61</v>
+      </c>
+      <c r="C23" t="n">
+        <v>394552.12</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3549.04</v>
+        <v>162599.43</v>
+      </c>
+      <c r="C24" t="n">
+        <v>162879.73</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>394376.61</v>
+        <v>158535.18</v>
+      </c>
+      <c r="C25" t="n">
+        <v>162107.15</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>162599.43</v>
+        <v>155943.39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>158850.77</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>158535.18</v>
+        <v>291688.7</v>
+      </c>
+      <c r="C27" t="n">
+        <v>314277.38</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>155943.39</v>
+        <v>240254.59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>252311.39</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>291688.7</v>
+        <v>328136.08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>328105.35</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>240254.59</v>
+        <v>2070784.18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2149672.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>328136.08</v>
+        <v>33770.96</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38760.08</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2070784.18</v>
+        <v>6549.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6539.17</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>33770.96</v>
+        <v>190537.56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>190593.79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>6549.5</v>
+        <v>243337.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>243463.29</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>190537.56</v>
+        <v>55055.52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57695.35</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>243337.28</v>
+        <v>12858.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12855.73</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>55055.52</v>
+        <v>36730.42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>41466</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>12858.09</v>
+        <v>58335.01</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58295.6</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>36730.42</v>
+        <v>53903.51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53920.24</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>58335.01</v>
+        <v>84374.39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>84382.05</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>53903.51</v>
+        <v>62927.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62929.25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>84374.39</v>
+        <v>172138.29</v>
+      </c>
+      <c r="C42" t="n">
+        <v>172156.64</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62927.31</v>
+        <v>110024.63</v>
+      </c>
+      <c r="C43" t="n">
+        <v>110045.92</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>172138.29</v>
+        <v>119468.33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>148621.13</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>110024.63</v>
+        <v>669264.28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>668821.3100000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119468.33</v>
+        <v>514459.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>625236.7</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>669264.28</v>
+        <v>1098686.84</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1099068.37</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>514459.8</v>
+        <v>31412.83</v>
+      </c>
+      <c r="C48" t="n">
+        <v>38662.05</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Toronto trust Argy</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>1098686.84</v>
+        <v>15230.95</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15184.49</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>31412.83</v>
+        <v>216889.38</v>
+      </c>
+      <c r="C50" t="n">
+        <v>224423.69</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>15230.95</v>
+        <v>10410690.33</v>
+      </c>
+      <c r="C51" t="n">
+        <v>10772337.05</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -662,9 +662,7 @@
       <c r="B18" t="n">
         <v>145015.28</v>
       </c>
-      <c r="C18" t="n">
-        <v>145634.23</v>
-      </c>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -675,9 +673,7 @@
       <c r="B19" t="n">
         <v>198285.29</v>
       </c>
-      <c r="C19" t="n">
-        <v>198350.01</v>
-      </c>
+      <c r="C19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -688,9 +684,7 @@
       <c r="B20" t="n">
         <v>74425.36</v>
       </c>
-      <c r="C20" t="n">
-        <v>74377.03999999999</v>
-      </c>
+      <c r="C20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -701,9 +695,7 @@
       <c r="B21" t="n">
         <v>1350.57</v>
       </c>
-      <c r="C21" t="n">
-        <v>1350.43</v>
-      </c>
+      <c r="C21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -714,9 +706,7 @@
       <c r="B22" t="n">
         <v>3549.04</v>
       </c>
-      <c r="C22" t="n">
-        <v>3546.75</v>
-      </c>
+      <c r="C22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -727,9 +717,7 @@
       <c r="B23" t="n">
         <v>394376.61</v>
       </c>
-      <c r="C23" t="n">
-        <v>394552.12</v>
-      </c>
+      <c r="C23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -740,9 +728,7 @@
       <c r="B24" t="n">
         <v>162599.43</v>
       </c>
-      <c r="C24" t="n">
-        <v>162879.73</v>
-      </c>
+      <c r="C24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -753,9 +739,7 @@
       <c r="B25" t="n">
         <v>158535.18</v>
       </c>
-      <c r="C25" t="n">
-        <v>162107.15</v>
-      </c>
+      <c r="C25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -766,9 +750,7 @@
       <c r="B26" t="n">
         <v>155943.39</v>
       </c>
-      <c r="C26" t="n">
-        <v>158850.77</v>
-      </c>
+      <c r="C26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
@@ -779,9 +761,7 @@
       <c r="B27" t="n">
         <v>291688.7</v>
       </c>
-      <c r="C27" t="n">
-        <v>314277.38</v>
-      </c>
+      <c r="C27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
@@ -948,9 +928,7 @@
       <c r="B40" t="n">
         <v>84374.39</v>
       </c>
-      <c r="C40" t="n">
-        <v>84382.05</v>
-      </c>
+      <c r="C40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
@@ -1079,7 +1057,7 @@
         <v>216889.38</v>
       </c>
       <c r="C50" t="n">
-        <v>224423.69</v>
+        <v>245189.98</v>
       </c>
     </row>
     <row r="51">
@@ -1092,7 +1070,7 @@
         <v>10410690.33</v>
       </c>
       <c r="C51" t="n">
-        <v>10772337.05</v>
+        <v>9072029.390000001</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,62 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>06-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +502,40 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>127119.16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>126964.74</v>
+      </c>
+      <c r="D2" t="n">
+        <v>153313.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>153275.95</v>
+      </c>
+      <c r="F2" t="n">
+        <v>178378.1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>178517.1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>190902.63</v>
+      </c>
+      <c r="I2" t="n">
+        <v>164914.22</v>
+      </c>
+      <c r="J2" t="n">
+        <v>164747.55</v>
+      </c>
+      <c r="K2" t="n">
+        <v>158072.16</v>
+      </c>
+      <c r="L2" t="n">
+        <v>135337.85</v>
+      </c>
+      <c r="M2" t="n">
         <v>135195.82</v>
-      </c>
-      <c r="C2" t="n">
-        <v>135216.77</v>
-      </c>
-      <c r="D2" t="n">
-        <v>134730.7</v>
-      </c>
-      <c r="E2" t="n">
-        <v>135148.45</v>
-      </c>
-      <c r="F2" t="n">
-        <v>147250.29</v>
-      </c>
-      <c r="G2" t="n">
-        <v>147166.64</v>
       </c>
     </row>
     <row r="3">
@@ -497,22 +545,40 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>278044.48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>278103.23</v>
+      </c>
+      <c r="D3" t="n">
+        <v>277897.95</v>
+      </c>
+      <c r="E3" t="n">
+        <v>296208.28</v>
+      </c>
+      <c r="F3" t="n">
+        <v>279554.88</v>
+      </c>
+      <c r="G3" t="n">
+        <v>287539.72</v>
+      </c>
+      <c r="H3" t="n">
+        <v>276329.41</v>
+      </c>
+      <c r="I3" t="n">
+        <v>276576.67</v>
+      </c>
+      <c r="J3" t="n">
+        <v>276214.82</v>
+      </c>
+      <c r="K3" t="n">
+        <v>284819.95</v>
+      </c>
+      <c r="L3" t="n">
+        <v>274438.09</v>
+      </c>
+      <c r="M3" t="n">
         <v>304579.45</v>
-      </c>
-      <c r="C3" t="n">
-        <v>297571.27</v>
-      </c>
-      <c r="D3" t="n">
-        <v>296744.73</v>
-      </c>
-      <c r="E3" t="n">
-        <v>297919.16</v>
-      </c>
-      <c r="F3" t="n">
-        <v>297479</v>
-      </c>
-      <c r="G3" t="n">
-        <v>305747.5</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +588,40 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>58845.08</v>
+      </c>
+      <c r="C4" t="n">
+        <v>58867.61</v>
+      </c>
+      <c r="D4" t="n">
+        <v>61873.11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>61841.25</v>
+      </c>
+      <c r="F4" t="n">
+        <v>61804.6</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61739.8</v>
+      </c>
+      <c r="H4" t="n">
+        <v>61888.6</v>
+      </c>
+      <c r="I4" t="n">
+        <v>61896.32</v>
+      </c>
+      <c r="J4" t="n">
+        <v>61850.58</v>
+      </c>
+      <c r="K4" t="n">
+        <v>61826.21</v>
+      </c>
+      <c r="L4" t="n">
+        <v>61830.77</v>
+      </c>
+      <c r="M4" t="n">
         <v>61820.49</v>
-      </c>
-      <c r="C4" t="n">
-        <v>61866.47</v>
-      </c>
-      <c r="D4" t="n">
-        <v>61571.01</v>
-      </c>
-      <c r="E4" t="n">
-        <v>61858.13</v>
-      </c>
-      <c r="F4" t="n">
-        <v>61816.15</v>
-      </c>
-      <c r="G4" t="n">
-        <v>61840.16</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +631,40 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>39837.91</v>
+      </c>
+      <c r="C5" t="n">
+        <v>45298</v>
+      </c>
+      <c r="D5" t="n">
+        <v>45349.19</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45343.49</v>
+      </c>
+      <c r="F5" t="n">
+        <v>45343.61</v>
+      </c>
+      <c r="G5" t="n">
+        <v>45325.63</v>
+      </c>
+      <c r="H5" t="n">
+        <v>45298.06</v>
+      </c>
+      <c r="I5" t="n">
+        <v>45384.11</v>
+      </c>
+      <c r="J5" t="n">
+        <v>45394.59</v>
+      </c>
+      <c r="K5" t="n">
+        <v>45381</v>
+      </c>
+      <c r="L5" t="n">
+        <v>45308.29</v>
+      </c>
+      <c r="M5" t="n">
         <v>45355.57</v>
-      </c>
-      <c r="C5" t="n">
-        <v>51423.95</v>
-      </c>
-      <c r="D5" t="n">
-        <v>51307.95</v>
-      </c>
-      <c r="E5" t="n">
-        <v>51441.29</v>
-      </c>
-      <c r="F5" t="n">
-        <v>72090.58</v>
-      </c>
-      <c r="G5" t="n">
-        <v>78751.28</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +674,40 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>108971.22</v>
+      </c>
+      <c r="C6" t="n">
+        <v>116254.12</v>
+      </c>
+      <c r="D6" t="n">
+        <v>116299.79</v>
+      </c>
+      <c r="E6" t="n">
+        <v>116237.97</v>
+      </c>
+      <c r="F6" t="n">
+        <v>116195.97</v>
+      </c>
+      <c r="G6" t="n">
+        <v>116253.57</v>
+      </c>
+      <c r="H6" t="n">
+        <v>116331.73</v>
+      </c>
+      <c r="I6" t="n">
+        <v>116399.02</v>
+      </c>
+      <c r="J6" t="n">
+        <v>116381.23</v>
+      </c>
+      <c r="K6" t="n">
+        <v>141937.18</v>
+      </c>
+      <c r="L6" t="n">
+        <v>141831.7</v>
+      </c>
+      <c r="M6" t="n">
         <v>141934.82</v>
-      </c>
-      <c r="C6" t="n">
-        <v>141886.65</v>
-      </c>
-      <c r="D6" t="n">
-        <v>141301.19</v>
-      </c>
-      <c r="E6" t="n">
-        <v>141895.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>141716.76</v>
-      </c>
-      <c r="G6" t="n">
-        <v>141659.42</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +717,40 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>47.74</v>
+      </c>
+      <c r="C7" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="D7" t="n">
+        <v>44.43</v>
+      </c>
+      <c r="E7" t="n">
+        <v>45.24</v>
+      </c>
+      <c r="F7" t="n">
+        <v>44.29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>44.69</v>
+      </c>
+      <c r="H7" t="n">
+        <v>44.67</v>
+      </c>
+      <c r="I7" t="n">
+        <v>43.83</v>
+      </c>
+      <c r="J7" t="n">
+        <v>43.43</v>
+      </c>
+      <c r="K7" t="n">
+        <v>41.02</v>
+      </c>
+      <c r="L7" t="n">
+        <v>41.28</v>
+      </c>
+      <c r="M7" t="n">
         <v>41.03</v>
-      </c>
-      <c r="C7" t="n">
-        <v>40.66</v>
-      </c>
-      <c r="D7" t="n">
-        <v>39.7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>40.54</v>
-      </c>
-      <c r="F7" t="n">
-        <v>35.62</v>
-      </c>
-      <c r="G7" t="n">
-        <v>35.83</v>
       </c>
     </row>
     <row r="8">
@@ -622,22 +760,40 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>156909.19</v>
+      </c>
+      <c r="C8" t="n">
+        <v>156874.24</v>
+      </c>
+      <c r="D8" t="n">
+        <v>177549.07</v>
+      </c>
+      <c r="E8" t="n">
+        <v>213845.57</v>
+      </c>
+      <c r="F8" t="n">
+        <v>213807</v>
+      </c>
+      <c r="G8" t="n">
+        <v>213609.85</v>
+      </c>
+      <c r="H8" t="n">
+        <v>213617.22</v>
+      </c>
+      <c r="I8" t="n">
+        <v>213789.29</v>
+      </c>
+      <c r="J8" t="n">
+        <v>213696.49</v>
+      </c>
+      <c r="K8" t="n">
+        <v>213667.54</v>
+      </c>
+      <c r="L8" t="n">
+        <v>213851.57</v>
+      </c>
+      <c r="M8" t="n">
         <v>213898.33</v>
-      </c>
-      <c r="C8" t="n">
-        <v>213609.93</v>
-      </c>
-      <c r="D8" t="n">
-        <v>212591.59</v>
-      </c>
-      <c r="E8" t="n">
-        <v>213647.74</v>
-      </c>
-      <c r="F8" t="n">
-        <v>213495.76</v>
-      </c>
-      <c r="G8" t="n">
-        <v>213931.36</v>
       </c>
     </row>
     <row r="9">
@@ -647,22 +803,40 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>267484.69</v>
+      </c>
+      <c r="C9" t="n">
+        <v>282623.59</v>
+      </c>
+      <c r="D9" t="n">
+        <v>282780.62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>282743.97</v>
+      </c>
+      <c r="F9" t="n">
+        <v>282799.11</v>
+      </c>
+      <c r="G9" t="n">
+        <v>282671.95</v>
+      </c>
+      <c r="H9" t="n">
+        <v>282851.84</v>
+      </c>
+      <c r="I9" t="n">
+        <v>282738.46</v>
+      </c>
+      <c r="J9" t="n">
+        <v>282780</v>
+      </c>
+      <c r="K9" t="n">
+        <v>282660.43</v>
+      </c>
+      <c r="L9" t="n">
+        <v>282774.83</v>
+      </c>
+      <c r="M9" t="n">
         <v>282675.69</v>
-      </c>
-      <c r="C9" t="n">
-        <v>282786.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>281726.79</v>
-      </c>
-      <c r="E9" t="n">
-        <v>282725.55</v>
-      </c>
-      <c r="F9" t="n">
-        <v>282572.04</v>
-      </c>
-      <c r="G9" t="n">
-        <v>282679.08</v>
       </c>
     </row>
     <row r="10">
@@ -672,22 +846,40 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>6660.79</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6658.4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>6653.1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6656.6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>6665.04</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9333.91</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9319.1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>9328.559999999999</v>
+      </c>
+      <c r="J10" t="n">
+        <v>9329.16</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9314.309999999999</v>
+      </c>
+      <c r="L10" t="n">
+        <v>9344.6</v>
+      </c>
+      <c r="M10" t="n">
         <v>9332.559999999999</v>
-      </c>
-      <c r="C10" t="n">
-        <v>9322.4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9305.889999999999</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9339.450000000001</v>
-      </c>
-      <c r="F10" t="n">
-        <v>9333.66</v>
-      </c>
-      <c r="G10" t="n">
-        <v>9343.110000000001</v>
       </c>
     </row>
     <row r="11">
@@ -697,22 +889,40 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>469823.83</v>
+      </c>
+      <c r="C11" t="n">
+        <v>470073.19</v>
+      </c>
+      <c r="D11" t="n">
+        <v>469469.49</v>
+      </c>
+      <c r="E11" t="n">
+        <v>469287.72</v>
+      </c>
+      <c r="F11" t="n">
+        <v>469567.18</v>
+      </c>
+      <c r="G11" t="n">
+        <v>470477.31</v>
+      </c>
+      <c r="H11" t="n">
+        <v>469876.11</v>
+      </c>
+      <c r="I11" t="n">
+        <v>470499.67</v>
+      </c>
+      <c r="J11" t="n">
+        <v>469747.91</v>
+      </c>
+      <c r="K11" t="n">
+        <v>469139.28</v>
+      </c>
+      <c r="L11" t="n">
+        <v>468930.47</v>
+      </c>
+      <c r="M11" t="n">
         <v>469278.52</v>
-      </c>
-      <c r="C11" t="n">
-        <v>468940.24</v>
-      </c>
-      <c r="D11" t="n">
-        <v>467662.58</v>
-      </c>
-      <c r="E11" t="n">
-        <v>469150.55</v>
-      </c>
-      <c r="F11" t="n">
-        <v>472172.01</v>
-      </c>
-      <c r="G11" t="n">
-        <v>472340.14</v>
       </c>
     </row>
     <row r="12">
@@ -722,22 +932,40 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>17157.68</v>
+      </c>
+      <c r="C12" t="n">
+        <v>17153.48</v>
+      </c>
+      <c r="D12" t="n">
+        <v>17147.37</v>
+      </c>
+      <c r="E12" t="n">
+        <v>17166.51</v>
+      </c>
+      <c r="F12" t="n">
+        <v>17029.81</v>
+      </c>
+      <c r="G12" t="n">
+        <v>17024.51</v>
+      </c>
+      <c r="H12" t="n">
+        <v>17020</v>
+      </c>
+      <c r="I12" t="n">
+        <v>17022.71</v>
+      </c>
+      <c r="J12" t="n">
+        <v>16987.79</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2012.23</v>
+      </c>
+      <c r="L12" t="n">
+        <v>2010.81</v>
+      </c>
+      <c r="M12" t="n">
         <v>2012.89</v>
-      </c>
-      <c r="C12" t="n">
-        <v>2013.47</v>
-      </c>
-      <c r="D12" t="n">
-        <v>2005.2</v>
-      </c>
-      <c r="E12" t="n">
-        <v>2010.72</v>
-      </c>
-      <c r="F12" t="n">
-        <v>2010.49</v>
-      </c>
-      <c r="G12" t="n">
-        <v>2012.08</v>
       </c>
     </row>
     <row r="13">
@@ -747,22 +975,40 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>10593.73</v>
+      </c>
+      <c r="C13" t="n">
+        <v>10604.76</v>
+      </c>
+      <c r="D13" t="n">
+        <v>10607.71</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10589.39</v>
+      </c>
+      <c r="F13" t="n">
+        <v>10602.26</v>
+      </c>
+      <c r="G13" t="n">
+        <v>10593.14</v>
+      </c>
+      <c r="H13" t="n">
+        <v>10598.24</v>
+      </c>
+      <c r="I13" t="n">
+        <v>10611.14</v>
+      </c>
+      <c r="J13" t="n">
+        <v>10594.96</v>
+      </c>
+      <c r="K13" t="n">
+        <v>10600.09</v>
+      </c>
+      <c r="L13" t="n">
+        <v>10602.86</v>
+      </c>
+      <c r="M13" t="n">
         <v>10599.71</v>
-      </c>
-      <c r="C13" t="n">
-        <v>10611.86</v>
-      </c>
-      <c r="D13" t="n">
-        <v>10554.05</v>
-      </c>
-      <c r="E13" t="n">
-        <v>10607.46</v>
-      </c>
-      <c r="F13" t="n">
-        <v>10595.22</v>
-      </c>
-      <c r="G13" t="n">
-        <v>10605.84</v>
       </c>
     </row>
     <row r="14">
@@ -772,22 +1018,40 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>254254.97</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260837.5</v>
+      </c>
+      <c r="D14" t="n">
+        <v>240986.5</v>
+      </c>
+      <c r="E14" t="n">
+        <v>240997.65</v>
+      </c>
+      <c r="F14" t="n">
+        <v>241010.86</v>
+      </c>
+      <c r="G14" t="n">
+        <v>240973.01</v>
+      </c>
+      <c r="H14" t="n">
+        <v>240820.35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>241130.86</v>
+      </c>
+      <c r="J14" t="n">
+        <v>240713.34</v>
+      </c>
+      <c r="K14" t="n">
+        <v>241021.12</v>
+      </c>
+      <c r="L14" t="n">
+        <v>241008.77</v>
+      </c>
+      <c r="M14" t="n">
         <v>240838.07</v>
-      </c>
-      <c r="C14" t="n">
-        <v>237535.86</v>
-      </c>
-      <c r="D14" t="n">
-        <v>222542.06</v>
-      </c>
-      <c r="E14" t="n">
-        <v>237985.91</v>
-      </c>
-      <c r="F14" t="n">
-        <v>246296.88</v>
-      </c>
-      <c r="G14" t="n">
-        <v>250866.79</v>
       </c>
     </row>
     <row r="15">
@@ -797,22 +1061,40 @@
         </is>
       </c>
       <c r="B15" t="n">
+        <v>79224.77</v>
+      </c>
+      <c r="C15" t="n">
+        <v>83969.24000000001</v>
+      </c>
+      <c r="D15" t="n">
+        <v>83969.10000000001</v>
+      </c>
+      <c r="E15" t="n">
+        <v>87477.25</v>
+      </c>
+      <c r="F15" t="n">
+        <v>90733.19</v>
+      </c>
+      <c r="G15" t="n">
+        <v>90683.67</v>
+      </c>
+      <c r="H15" t="n">
+        <v>90664.78999999999</v>
+      </c>
+      <c r="I15" t="n">
+        <v>90741.11</v>
+      </c>
+      <c r="J15" t="n">
+        <v>90664.69</v>
+      </c>
+      <c r="K15" t="n">
+        <v>90690.85000000001</v>
+      </c>
+      <c r="L15" t="n">
+        <v>86651.85000000001</v>
+      </c>
+      <c r="M15" t="n">
         <v>86660.61</v>
-      </c>
-      <c r="C15" t="n">
-        <v>86606.09</v>
-      </c>
-      <c r="D15" t="n">
-        <v>86296.60000000001</v>
-      </c>
-      <c r="E15" t="n">
-        <v>86666.13</v>
-      </c>
-      <c r="F15" t="n">
-        <v>86699.98</v>
-      </c>
-      <c r="G15" t="n">
-        <v>86614.08</v>
       </c>
     </row>
     <row r="16">
@@ -822,22 +1104,40 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>50132.93</v>
+      </c>
+      <c r="C16" t="n">
+        <v>91430.75999999999</v>
+      </c>
+      <c r="D16" t="n">
+        <v>91562.03999999999</v>
+      </c>
+      <c r="E16" t="n">
+        <v>91468.85000000001</v>
+      </c>
+      <c r="F16" t="n">
+        <v>91539.33</v>
+      </c>
+      <c r="G16" t="n">
+        <v>91503.92999999999</v>
+      </c>
+      <c r="H16" t="n">
+        <v>91419.25</v>
+      </c>
+      <c r="I16" t="n">
+        <v>91563.52</v>
+      </c>
+      <c r="J16" t="n">
+        <v>91437.34</v>
+      </c>
+      <c r="K16" t="n">
+        <v>91601.99000000001</v>
+      </c>
+      <c r="L16" t="n">
+        <v>91415.11</v>
+      </c>
+      <c r="M16" t="n">
         <v>91407.19</v>
-      </c>
-      <c r="C16" t="n">
-        <v>91401.58</v>
-      </c>
-      <c r="D16" t="n">
-        <v>91177.44</v>
-      </c>
-      <c r="E16" t="n">
-        <v>91466.36</v>
-      </c>
-      <c r="F16" t="n">
-        <v>91494.53999999999</v>
-      </c>
-      <c r="G16" t="n">
-        <v>91564.02</v>
       </c>
     </row>
     <row r="17">
@@ -847,22 +1147,40 @@
         </is>
       </c>
       <c r="B17" t="n">
+        <v>691572.96</v>
+      </c>
+      <c r="C17" t="n">
+        <v>691866.86</v>
+      </c>
+      <c r="D17" t="n">
+        <v>692596.8199999999</v>
+      </c>
+      <c r="E17" t="n">
+        <v>690457.64</v>
+      </c>
+      <c r="F17" t="n">
+        <v>690309.1800000001</v>
+      </c>
+      <c r="G17" t="n">
+        <v>689823.95</v>
+      </c>
+      <c r="H17" t="n">
+        <v>687671.39</v>
+      </c>
+      <c r="I17" t="n">
+        <v>680659.71</v>
+      </c>
+      <c r="J17" t="n">
+        <v>674166.3</v>
+      </c>
+      <c r="K17" t="n">
+        <v>668321.0699999999</v>
+      </c>
+      <c r="L17" t="n">
+        <v>665926.97</v>
+      </c>
+      <c r="M17" t="n">
         <v>658311.11</v>
-      </c>
-      <c r="C17" t="n">
-        <v>654527.35</v>
-      </c>
-      <c r="D17" t="n">
-        <v>645108.62</v>
-      </c>
-      <c r="E17" t="n">
-        <v>644542.0699999999</v>
-      </c>
-      <c r="F17" t="n">
-        <v>644163.6800000001</v>
-      </c>
-      <c r="G17" t="n">
-        <v>644340.09</v>
       </c>
     </row>
     <row r="18">
@@ -872,22 +1190,38 @@
         </is>
       </c>
       <c r="B18" t="n">
+        <v>145015.28</v>
+      </c>
+      <c r="C18" t="inlineStr"/>
+      <c r="D18" t="n">
+        <v>162915.44</v>
+      </c>
+      <c r="E18" t="n">
+        <v>162969.61</v>
+      </c>
+      <c r="F18" t="n">
+        <v>162808.69</v>
+      </c>
+      <c r="G18" t="n">
+        <v>163141.72</v>
+      </c>
+      <c r="H18" t="n">
+        <v>162882.13</v>
+      </c>
+      <c r="I18" t="n">
+        <v>162783.46</v>
+      </c>
+      <c r="J18" t="n">
+        <v>162695.02</v>
+      </c>
+      <c r="K18" t="n">
+        <v>162981.87</v>
+      </c>
+      <c r="L18" t="n">
+        <v>162889.49</v>
+      </c>
+      <c r="M18" t="n">
         <v>162937.44</v>
-      </c>
-      <c r="C18" t="n">
-        <v>162841.79</v>
-      </c>
-      <c r="D18" t="n">
-        <v>162306.05</v>
-      </c>
-      <c r="E18" t="n">
-        <v>169911.28</v>
-      </c>
-      <c r="F18" t="n">
-        <v>185734.39</v>
-      </c>
-      <c r="G18" t="n">
-        <v>211027.03</v>
       </c>
     </row>
     <row r="19">
@@ -897,22 +1231,38 @@
         </is>
       </c>
       <c r="B19" t="n">
+        <v>198285.29</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>198486.05</v>
+      </c>
+      <c r="E19" t="n">
+        <v>198499.78</v>
+      </c>
+      <c r="F19" t="n">
+        <v>198456.52</v>
+      </c>
+      <c r="G19" t="n">
+        <v>198412.93</v>
+      </c>
+      <c r="H19" t="n">
+        <v>198176.06</v>
+      </c>
+      <c r="I19" t="n">
+        <v>198312.5</v>
+      </c>
+      <c r="J19" t="n">
+        <v>198273.13</v>
+      </c>
+      <c r="K19" t="n">
+        <v>198326.93</v>
+      </c>
+      <c r="L19" t="n">
+        <v>198461.35</v>
+      </c>
+      <c r="M19" t="n">
         <v>198508.61</v>
-      </c>
-      <c r="C19" t="n">
-        <v>198431.18</v>
-      </c>
-      <c r="D19" t="n">
-        <v>197552.25</v>
-      </c>
-      <c r="E19" t="n">
-        <v>198410.94</v>
-      </c>
-      <c r="F19" t="n">
-        <v>198497.1</v>
-      </c>
-      <c r="G19" t="n">
-        <v>198293.4</v>
       </c>
     </row>
     <row r="20">
@@ -922,22 +1272,38 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>74425.36</v>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="n">
+        <v>74378.22</v>
+      </c>
+      <c r="E20" t="n">
+        <v>74481.42999999999</v>
+      </c>
+      <c r="F20" t="n">
+        <v>74476.23</v>
+      </c>
+      <c r="G20" t="n">
+        <v>74489.53999999999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>74479.28999999999</v>
+      </c>
+      <c r="I20" t="n">
+        <v>74406.56</v>
+      </c>
+      <c r="J20" t="n">
+        <v>74459.42999999999</v>
+      </c>
+      <c r="K20" t="n">
+        <v>74394.39999999999</v>
+      </c>
+      <c r="L20" t="n">
+        <v>74404.53</v>
+      </c>
+      <c r="M20" t="n">
         <v>74419.67999999999</v>
-      </c>
-      <c r="C20" t="n">
-        <v>74457.14999999999</v>
-      </c>
-      <c r="D20" t="n">
-        <v>74195.00999999999</v>
-      </c>
-      <c r="E20" t="n">
-        <v>74417.36</v>
-      </c>
-      <c r="F20" t="n">
-        <v>74420.78</v>
-      </c>
-      <c r="G20" t="n">
-        <v>74497.09</v>
       </c>
     </row>
     <row r="21">
@@ -947,22 +1313,38 @@
         </is>
       </c>
       <c r="B21" t="n">
+        <v>1350.57</v>
+      </c>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="n">
+        <v>1349.61</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1350.1</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1347.57</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1352.12</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1351.1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1349.67</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1353.36</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1350.77</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1353.69</v>
+      </c>
+      <c r="M21" t="n">
         <v>1348.1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1350.08</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1344.97</v>
-      </c>
-      <c r="E21" t="n">
-        <v>1347.7</v>
-      </c>
-      <c r="F21" t="n">
-        <v>1349.72</v>
-      </c>
-      <c r="G21" t="n">
-        <v>1353.49</v>
       </c>
     </row>
     <row r="22">
@@ -972,22 +1354,38 @@
         </is>
       </c>
       <c r="B22" t="n">
+        <v>3549.04</v>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="n">
+        <v>3545.99</v>
+      </c>
+      <c r="E22" t="n">
+        <v>3553.11</v>
+      </c>
+      <c r="F22" t="n">
+        <v>3555.02</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3550.67</v>
+      </c>
+      <c r="H22" t="n">
+        <v>3551.37</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3554.19</v>
+      </c>
+      <c r="J22" t="n">
+        <v>3550.06</v>
+      </c>
+      <c r="K22" t="n">
+        <v>3554.6</v>
+      </c>
+      <c r="L22" t="n">
+        <v>3546.35</v>
+      </c>
+      <c r="M22" t="n">
         <v>3549.71</v>
-      </c>
-      <c r="C22" t="n">
-        <v>3545.19</v>
-      </c>
-      <c r="D22" t="n">
-        <v>3532.51</v>
-      </c>
-      <c r="E22" t="n">
-        <v>3549.56</v>
-      </c>
-      <c r="F22" t="n">
-        <v>3553.35</v>
-      </c>
-      <c r="G22" t="n">
-        <v>3551.22</v>
       </c>
     </row>
     <row r="23">
@@ -997,22 +1395,38 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>394376.61</v>
+      </c>
+      <c r="C23" t="inlineStr"/>
+      <c r="D23" t="n">
+        <v>389188.58</v>
+      </c>
+      <c r="E23" t="n">
+        <v>380274.03</v>
+      </c>
+      <c r="F23" t="n">
+        <v>377667.47</v>
+      </c>
+      <c r="G23" t="n">
+        <v>377813.76</v>
+      </c>
+      <c r="H23" t="n">
+        <v>377886.23</v>
+      </c>
+      <c r="I23" t="n">
+        <v>377489.44</v>
+      </c>
+      <c r="J23" t="n">
+        <v>377573.84</v>
+      </c>
+      <c r="K23" t="n">
+        <v>377380.97</v>
+      </c>
+      <c r="L23" t="n">
+        <v>377600.16</v>
+      </c>
+      <c r="M23" t="n">
         <v>377626.87</v>
-      </c>
-      <c r="C23" t="n">
-        <v>377629.97</v>
-      </c>
-      <c r="D23" t="n">
-        <v>376481.61</v>
-      </c>
-      <c r="E23" t="n">
-        <v>377858.92</v>
-      </c>
-      <c r="F23" t="n">
-        <v>377651.15</v>
-      </c>
-      <c r="G23" t="n">
-        <v>377280.89</v>
       </c>
     </row>
     <row r="24">
@@ -1022,22 +1436,38 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>162599.43</v>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>162946.19</v>
+      </c>
+      <c r="E24" t="n">
+        <v>162574.85</v>
+      </c>
+      <c r="F24" t="n">
+        <v>163042.9</v>
+      </c>
+      <c r="G24" t="n">
+        <v>149734.4</v>
+      </c>
+      <c r="H24" t="n">
+        <v>149888.11</v>
+      </c>
+      <c r="I24" t="n">
+        <v>149555.88</v>
+      </c>
+      <c r="J24" t="n">
+        <v>149956.69</v>
+      </c>
+      <c r="K24" t="n">
+        <v>149919.53</v>
+      </c>
+      <c r="L24" t="n">
+        <v>150114.23</v>
+      </c>
+      <c r="M24" t="n">
         <v>149467.64</v>
-      </c>
-      <c r="C24" t="n">
-        <v>150130.24</v>
-      </c>
-      <c r="D24" t="n">
-        <v>149311.12</v>
-      </c>
-      <c r="E24" t="n">
-        <v>149574.08</v>
-      </c>
-      <c r="F24" t="n">
-        <v>149417.47</v>
-      </c>
-      <c r="G24" t="n">
-        <v>138018.62</v>
       </c>
     </row>
     <row r="25">
@@ -1047,22 +1477,38 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>158535.18</v>
+      </c>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="n">
+        <v>191950.87</v>
+      </c>
+      <c r="E25" t="n">
+        <v>223159.47</v>
+      </c>
+      <c r="F25" t="n">
+        <v>230213.01</v>
+      </c>
+      <c r="G25" t="n">
+        <v>227087.01</v>
+      </c>
+      <c r="H25" t="n">
+        <v>230007.03</v>
+      </c>
+      <c r="I25" t="n">
+        <v>220835.75</v>
+      </c>
+      <c r="J25" t="n">
+        <v>231658.93</v>
+      </c>
+      <c r="K25" t="n">
+        <v>235376.28</v>
+      </c>
+      <c r="L25" t="n">
+        <v>231477.67</v>
+      </c>
+      <c r="M25" t="n">
         <v>231284.39</v>
-      </c>
-      <c r="C25" t="n">
-        <v>225320.26</v>
-      </c>
-      <c r="D25" t="n">
-        <v>224265.22</v>
-      </c>
-      <c r="E25" t="n">
-        <v>221232.36</v>
-      </c>
-      <c r="F25" t="n">
-        <v>204205.67</v>
-      </c>
-      <c r="G25" t="n">
-        <v>205075.07</v>
       </c>
     </row>
     <row r="26">
@@ -1072,22 +1518,38 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>155943.39</v>
+      </c>
+      <c r="C26" t="inlineStr"/>
+      <c r="D26" t="n">
+        <v>198637.42</v>
+      </c>
+      <c r="E26" t="n">
+        <v>211105.25</v>
+      </c>
+      <c r="F26" t="n">
+        <v>211655.21</v>
+      </c>
+      <c r="G26" t="n">
+        <v>209406.01</v>
+      </c>
+      <c r="H26" t="n">
+        <v>209327</v>
+      </c>
+      <c r="I26" t="n">
+        <v>209289.45</v>
+      </c>
+      <c r="J26" t="n">
+        <v>214950.79</v>
+      </c>
+      <c r="K26" t="n">
+        <v>225653.2</v>
+      </c>
+      <c r="L26" t="n">
+        <v>219881.48</v>
+      </c>
+      <c r="M26" t="n">
         <v>220045.18</v>
-      </c>
-      <c r="C26" t="n">
-        <v>211077.42</v>
-      </c>
-      <c r="D26" t="n">
-        <v>210136.69</v>
-      </c>
-      <c r="E26" t="n">
-        <v>205011.63</v>
-      </c>
-      <c r="F26" t="n">
-        <v>192327.1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>190592.47</v>
       </c>
     </row>
     <row r="27">
@@ -1097,22 +1559,38 @@
         </is>
       </c>
       <c r="B27" t="n">
+        <v>291688.7</v>
+      </c>
+      <c r="C27" t="inlineStr"/>
+      <c r="D27" t="n">
+        <v>285945.47</v>
+      </c>
+      <c r="E27" t="n">
+        <v>313502.85</v>
+      </c>
+      <c r="F27" t="n">
+        <v>313123.28</v>
+      </c>
+      <c r="G27" t="n">
+        <v>313251.97</v>
+      </c>
+      <c r="H27" t="n">
+        <v>313639.98</v>
+      </c>
+      <c r="I27" t="n">
+        <v>314990.59</v>
+      </c>
+      <c r="J27" t="n">
+        <v>306694.7</v>
+      </c>
+      <c r="K27" t="n">
+        <v>304782.96</v>
+      </c>
+      <c r="L27" t="n">
+        <v>282284.23</v>
+      </c>
+      <c r="M27" t="n">
         <v>275186.63</v>
-      </c>
-      <c r="C27" t="n">
-        <v>274750.39</v>
-      </c>
-      <c r="D27" t="n">
-        <v>273728.96</v>
-      </c>
-      <c r="E27" t="n">
-        <v>273010.52</v>
-      </c>
-      <c r="F27" t="n">
-        <v>287344.33</v>
-      </c>
-      <c r="G27" t="n">
-        <v>295529.49</v>
       </c>
     </row>
     <row r="28">
@@ -1122,22 +1600,40 @@
         </is>
       </c>
       <c r="B28" t="n">
+        <v>240254.59</v>
+      </c>
+      <c r="C28" t="n">
+        <v>252311.39</v>
+      </c>
+      <c r="D28" t="n">
+        <v>251454.83</v>
+      </c>
+      <c r="E28" t="n">
+        <v>266538.16</v>
+      </c>
+      <c r="F28" t="n">
+        <v>268480.2</v>
+      </c>
+      <c r="G28" t="n">
+        <v>288461.74</v>
+      </c>
+      <c r="H28" t="n">
+        <v>338362.09</v>
+      </c>
+      <c r="I28" t="n">
+        <v>358740.75</v>
+      </c>
+      <c r="J28" t="n">
+        <v>358822.05</v>
+      </c>
+      <c r="K28" t="n">
+        <v>358595.31</v>
+      </c>
+      <c r="L28" t="n">
+        <v>338625.8</v>
+      </c>
+      <c r="M28" t="n">
         <v>338367.48</v>
-      </c>
-      <c r="C28" t="n">
-        <v>313561.59</v>
-      </c>
-      <c r="D28" t="n">
-        <v>310318.37</v>
-      </c>
-      <c r="E28" t="n">
-        <v>286440.29</v>
-      </c>
-      <c r="F28" t="n">
-        <v>290605.99</v>
-      </c>
-      <c r="G28" t="n">
-        <v>286961.36</v>
       </c>
     </row>
     <row r="29">
@@ -1147,22 +1643,40 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>328136.08</v>
+      </c>
+      <c r="C29" t="n">
+        <v>328105.35</v>
+      </c>
+      <c r="D29" t="n">
+        <v>282961.03</v>
+      </c>
+      <c r="E29" t="n">
+        <v>270838.26</v>
+      </c>
+      <c r="F29" t="n">
+        <v>270950.98</v>
+      </c>
+      <c r="G29" t="n">
+        <v>270905.88</v>
+      </c>
+      <c r="H29" t="n">
+        <v>174822.89</v>
+      </c>
+      <c r="I29" t="n">
+        <v>174851.76</v>
+      </c>
+      <c r="J29" t="n">
+        <v>55165.9</v>
+      </c>
+      <c r="K29" t="n">
+        <v>30164.9</v>
+      </c>
+      <c r="L29" t="n">
+        <v>23663.77</v>
+      </c>
+      <c r="M29" t="n">
         <v>23749.6</v>
-      </c>
-      <c r="C29" t="n">
-        <v>23716.51</v>
-      </c>
-      <c r="D29" t="n">
-        <v>23623.24</v>
-      </c>
-      <c r="E29" t="n">
-        <v>23760.71</v>
-      </c>
-      <c r="F29" t="n">
-        <v>23757.32</v>
-      </c>
-      <c r="G29" t="n">
-        <v>23783.04</v>
       </c>
     </row>
     <row r="30">
@@ -1172,22 +1686,40 @@
         </is>
       </c>
       <c r="B30" t="n">
+        <v>2070784.18</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2149672.19</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2150227.08</v>
+      </c>
+      <c r="E30" t="n">
+        <v>2150216.36</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2000377.14</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1999371.14</v>
+      </c>
+      <c r="H30" t="n">
+        <v>2000484.03</v>
+      </c>
+      <c r="I30" t="n">
+        <v>1999814.9</v>
+      </c>
+      <c r="J30" t="n">
+        <v>2001009.31</v>
+      </c>
+      <c r="K30" t="n">
+        <v>2199324.4</v>
+      </c>
+      <c r="L30" t="n">
+        <v>2200855.55</v>
+      </c>
+      <c r="M30" t="n">
         <v>2200107.42</v>
-      </c>
-      <c r="C30" t="n">
-        <v>2200962.57</v>
-      </c>
-      <c r="D30" t="n">
-        <v>2190909.72</v>
-      </c>
-      <c r="E30" t="n">
-        <v>2199510.04</v>
-      </c>
-      <c r="F30" t="n">
-        <v>1999946.29</v>
-      </c>
-      <c r="G30" t="n">
-        <v>2000803.15</v>
       </c>
     </row>
     <row r="31">
@@ -1197,22 +1729,40 @@
         </is>
       </c>
       <c r="B31" t="n">
+        <v>33770.96</v>
+      </c>
+      <c r="C31" t="n">
+        <v>38760.08</v>
+      </c>
+      <c r="D31" t="n">
+        <v>36724.08</v>
+      </c>
+      <c r="E31" t="n">
+        <v>39780.55</v>
+      </c>
+      <c r="F31" t="n">
+        <v>39762.86</v>
+      </c>
+      <c r="G31" t="n">
+        <v>39770.59</v>
+      </c>
+      <c r="H31" t="n">
+        <v>39755.27</v>
+      </c>
+      <c r="I31" t="n">
+        <v>45737.02</v>
+      </c>
+      <c r="J31" t="n">
+        <v>45724.6</v>
+      </c>
+      <c r="K31" t="n">
+        <v>45754.44</v>
+      </c>
+      <c r="L31" t="n">
+        <v>45761.4</v>
+      </c>
+      <c r="M31" t="n">
         <v>45778.99</v>
-      </c>
-      <c r="C31" t="n">
-        <v>45770.05</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45582.82</v>
-      </c>
-      <c r="E31" t="n">
-        <v>45757.12</v>
-      </c>
-      <c r="F31" t="n">
-        <v>45737.42</v>
-      </c>
-      <c r="G31" t="n">
-        <v>45756.38</v>
       </c>
     </row>
     <row r="32">
@@ -1222,22 +1772,40 @@
         </is>
       </c>
       <c r="B32" t="n">
+        <v>6549.5</v>
+      </c>
+      <c r="C32" t="n">
+        <v>6539.17</v>
+      </c>
+      <c r="D32" t="n">
+        <v>6544.97</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6550.18</v>
+      </c>
+      <c r="F32" t="n">
+        <v>6541.84</v>
+      </c>
+      <c r="G32" t="n">
+        <v>6546.52</v>
+      </c>
+      <c r="H32" t="n">
+        <v>6542.76</v>
+      </c>
+      <c r="I32" t="n">
+        <v>6553.34</v>
+      </c>
+      <c r="J32" t="n">
+        <v>6543.55</v>
+      </c>
+      <c r="K32" t="n">
+        <v>6545.54</v>
+      </c>
+      <c r="L32" t="n">
+        <v>6536.51</v>
+      </c>
+      <c r="M32" t="n">
         <v>6541.88</v>
-      </c>
-      <c r="C32" t="n">
-        <v>6552.48</v>
-      </c>
-      <c r="D32" t="n">
-        <v>6516.39</v>
-      </c>
-      <c r="E32" t="n">
-        <v>6543.58</v>
-      </c>
-      <c r="F32" t="n">
-        <v>6550.08</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6543.47</v>
       </c>
     </row>
     <row r="33">
@@ -1247,22 +1815,40 @@
         </is>
       </c>
       <c r="B33" t="n">
+        <v>190537.56</v>
+      </c>
+      <c r="C33" t="n">
+        <v>190593.79</v>
+      </c>
+      <c r="D33" t="n">
+        <v>182400.56</v>
+      </c>
+      <c r="E33" t="n">
+        <v>182586.53</v>
+      </c>
+      <c r="F33" t="n">
+        <v>172587.89</v>
+      </c>
+      <c r="G33" t="n">
+        <v>167465.28</v>
+      </c>
+      <c r="H33" t="n">
+        <v>167389.87</v>
+      </c>
+      <c r="I33" t="n">
+        <v>152417.66</v>
+      </c>
+      <c r="J33" t="n">
+        <v>137524.84</v>
+      </c>
+      <c r="K33" t="n">
+        <v>133508.82</v>
+      </c>
+      <c r="L33" t="n">
+        <v>133447.97</v>
+      </c>
+      <c r="M33" t="n">
         <v>133435.68</v>
-      </c>
-      <c r="C33" t="n">
-        <v>128510.62</v>
-      </c>
-      <c r="D33" t="n">
-        <v>128053.48</v>
-      </c>
-      <c r="E33" t="n">
-        <v>128506.47</v>
-      </c>
-      <c r="F33" t="n">
-        <v>128487.36</v>
-      </c>
-      <c r="G33" t="n">
-        <v>121451.61</v>
       </c>
     </row>
     <row r="34">
@@ -1272,22 +1858,40 @@
         </is>
       </c>
       <c r="B34" t="n">
+        <v>243337.28</v>
+      </c>
+      <c r="C34" t="n">
+        <v>243463.29</v>
+      </c>
+      <c r="D34" t="n">
+        <v>199188.79</v>
+      </c>
+      <c r="E34" t="n">
+        <v>199419.57</v>
+      </c>
+      <c r="F34" t="n">
+        <v>199428.85</v>
+      </c>
+      <c r="G34" t="n">
+        <v>199082.96</v>
+      </c>
+      <c r="H34" t="n">
+        <v>204120.99</v>
+      </c>
+      <c r="I34" t="n">
+        <v>204413.92</v>
+      </c>
+      <c r="J34" t="n">
+        <v>204380.52</v>
+      </c>
+      <c r="K34" t="n">
+        <v>204309.66</v>
+      </c>
+      <c r="L34" t="n">
+        <v>194427.05</v>
+      </c>
+      <c r="M34" t="n">
         <v>194376.22</v>
-      </c>
-      <c r="C34" t="n">
-        <v>184182.39</v>
-      </c>
-      <c r="D34" t="n">
-        <v>183553.36</v>
-      </c>
-      <c r="E34" t="n">
-        <v>184124.98</v>
-      </c>
-      <c r="F34" t="n">
-        <v>184392.11</v>
-      </c>
-      <c r="G34" t="n">
-        <v>192448.04</v>
       </c>
     </row>
     <row r="35">
@@ -1297,22 +1901,40 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>55055.52</v>
+      </c>
+      <c r="C35" t="n">
+        <v>57695.35</v>
+      </c>
+      <c r="D35" t="n">
+        <v>74078.03</v>
+      </c>
+      <c r="E35" t="n">
+        <v>77494.33</v>
+      </c>
+      <c r="F35" t="n">
+        <v>76845.96000000001</v>
+      </c>
+      <c r="G35" t="n">
+        <v>76782.53</v>
+      </c>
+      <c r="H35" t="n">
+        <v>91274.25</v>
+      </c>
+      <c r="I35" t="n">
+        <v>91258.61</v>
+      </c>
+      <c r="J35" t="n">
+        <v>91153.81</v>
+      </c>
+      <c r="K35" t="n">
+        <v>91206.39999999999</v>
+      </c>
+      <c r="L35" t="n">
+        <v>90611.62</v>
+      </c>
+      <c r="M35" t="n">
         <v>79838.49000000001</v>
-      </c>
-      <c r="C35" t="n">
-        <v>79768.75999999999</v>
-      </c>
-      <c r="D35" t="n">
-        <v>77272.5</v>
-      </c>
-      <c r="E35" t="n">
-        <v>76868.92</v>
-      </c>
-      <c r="F35" t="n">
-        <v>78178.02</v>
-      </c>
-      <c r="G35" t="n">
-        <v>82918.75999999999</v>
       </c>
     </row>
     <row r="36">
@@ -1322,22 +1944,40 @@
         </is>
       </c>
       <c r="B36" t="n">
+        <v>12858.09</v>
+      </c>
+      <c r="C36" t="n">
+        <v>12855.73</v>
+      </c>
+      <c r="D36" t="n">
+        <v>14254.6</v>
+      </c>
+      <c r="E36" t="n">
+        <v>14260.34</v>
+      </c>
+      <c r="F36" t="n">
+        <v>14266.11</v>
+      </c>
+      <c r="G36" t="n">
+        <v>14261.59</v>
+      </c>
+      <c r="H36" t="n">
+        <v>14263.76</v>
+      </c>
+      <c r="I36" t="n">
+        <v>14261.1</v>
+      </c>
+      <c r="J36" t="n">
+        <v>14257.55</v>
+      </c>
+      <c r="K36" t="n">
+        <v>14257.64</v>
+      </c>
+      <c r="L36" t="n">
+        <v>8859.559999999999</v>
+      </c>
+      <c r="M36" t="n">
         <v>8863.08</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8121.37</v>
-      </c>
-      <c r="D36" t="n">
-        <v>8093.85</v>
-      </c>
-      <c r="E36" t="n">
-        <v>8116.42</v>
-      </c>
-      <c r="F36" t="n">
-        <v>8125.22</v>
-      </c>
-      <c r="G36" t="n">
-        <v>8115.2</v>
       </c>
     </row>
     <row r="37">
@@ -1347,22 +1987,40 @@
         </is>
       </c>
       <c r="B37" t="n">
+        <v>36730.42</v>
+      </c>
+      <c r="C37" t="n">
+        <v>41466</v>
+      </c>
+      <c r="D37" t="n">
+        <v>43975.47</v>
+      </c>
+      <c r="E37" t="n">
+        <v>50224.11</v>
+      </c>
+      <c r="F37" t="n">
+        <v>50431.41</v>
+      </c>
+      <c r="G37" t="n">
+        <v>50430.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>50410.3</v>
+      </c>
+      <c r="I37" t="n">
+        <v>50409.6</v>
+      </c>
+      <c r="J37" t="n">
+        <v>49001.96</v>
+      </c>
+      <c r="K37" t="n">
+        <v>47476.86</v>
+      </c>
+      <c r="L37" t="n">
+        <v>46086.63</v>
+      </c>
+      <c r="M37" t="n">
         <v>45974.75</v>
-      </c>
-      <c r="C37" t="n">
-        <v>44520.15</v>
-      </c>
-      <c r="D37" t="n">
-        <v>44377.97</v>
-      </c>
-      <c r="E37" t="n">
-        <v>45994.99</v>
-      </c>
-      <c r="F37" t="n">
-        <v>46018.27</v>
-      </c>
-      <c r="G37" t="n">
-        <v>48552.79</v>
       </c>
     </row>
     <row r="38">
@@ -1372,22 +2030,40 @@
         </is>
       </c>
       <c r="B38" t="n">
+        <v>58335.01</v>
+      </c>
+      <c r="C38" t="n">
+        <v>58295.6</v>
+      </c>
+      <c r="D38" t="n">
+        <v>58328.41</v>
+      </c>
+      <c r="E38" t="n">
+        <v>58361.8</v>
+      </c>
+      <c r="F38" t="n">
+        <v>58297.58</v>
+      </c>
+      <c r="G38" t="n">
+        <v>58363.24</v>
+      </c>
+      <c r="H38" t="n">
+        <v>58348.16</v>
+      </c>
+      <c r="I38" t="n">
+        <v>58330</v>
+      </c>
+      <c r="J38" t="n">
+        <v>58321.73</v>
+      </c>
+      <c r="K38" t="n">
+        <v>58355.16</v>
+      </c>
+      <c r="L38" t="n">
+        <v>58341.68</v>
+      </c>
+      <c r="M38" t="n">
         <v>58336.03</v>
-      </c>
-      <c r="C38" t="n">
-        <v>58366.28</v>
-      </c>
-      <c r="D38" t="n">
-        <v>58119.53</v>
-      </c>
-      <c r="E38" t="n">
-        <v>69105.07000000001</v>
-      </c>
-      <c r="F38" t="n">
-        <v>69034.39</v>
-      </c>
-      <c r="G38" t="n">
-        <v>69030.46000000001</v>
       </c>
     </row>
     <row r="39">
@@ -1397,22 +2073,40 @@
         </is>
       </c>
       <c r="B39" t="n">
+        <v>53903.51</v>
+      </c>
+      <c r="C39" t="n">
+        <v>53920.24</v>
+      </c>
+      <c r="D39" t="n">
+        <v>39432.72</v>
+      </c>
+      <c r="E39" t="n">
+        <v>42387.34</v>
+      </c>
+      <c r="F39" t="n">
+        <v>42401.1</v>
+      </c>
+      <c r="G39" t="n">
+        <v>42420.56</v>
+      </c>
+      <c r="H39" t="n">
+        <v>42383.75</v>
+      </c>
+      <c r="I39" t="n">
+        <v>42403.05</v>
+      </c>
+      <c r="J39" t="n">
+        <v>42379.61</v>
+      </c>
+      <c r="K39" t="n">
+        <v>42376.41</v>
+      </c>
+      <c r="L39" t="n">
+        <v>42432.19</v>
+      </c>
+      <c r="M39" t="n">
         <v>42410.13</v>
-      </c>
-      <c r="C39" t="n">
-        <v>42375.79</v>
-      </c>
-      <c r="D39" t="n">
-        <v>42256.94</v>
-      </c>
-      <c r="E39" t="n">
-        <v>42425.33</v>
-      </c>
-      <c r="F39" t="n">
-        <v>42422.2</v>
-      </c>
-      <c r="G39" t="n">
-        <v>38831.1</v>
       </c>
     </row>
     <row r="40">
@@ -1422,22 +2116,38 @@
         </is>
       </c>
       <c r="B40" t="n">
+        <v>84374.39</v>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="n">
+        <v>96852.81</v>
+      </c>
+      <c r="E40" t="n">
+        <v>96876.12</v>
+      </c>
+      <c r="F40" t="n">
+        <v>96948.22</v>
+      </c>
+      <c r="G40" t="n">
+        <v>96867</v>
+      </c>
+      <c r="H40" t="n">
+        <v>96771.57000000001</v>
+      </c>
+      <c r="I40" t="n">
+        <v>96766.89</v>
+      </c>
+      <c r="J40" t="n">
+        <v>96902.25999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>96873.39999999999</v>
+      </c>
+      <c r="L40" t="n">
+        <v>96883.75</v>
+      </c>
+      <c r="M40" t="n">
         <v>96881.86</v>
-      </c>
-      <c r="C40" t="n">
-        <v>96808.62</v>
-      </c>
-      <c r="D40" t="n">
-        <v>96525.56</v>
-      </c>
-      <c r="E40" t="n">
-        <v>96806.5</v>
-      </c>
-      <c r="F40" t="n">
-        <v>96798.89</v>
-      </c>
-      <c r="G40" t="n">
-        <v>96828.5</v>
       </c>
     </row>
     <row r="41">
@@ -1447,22 +2157,40 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>62927.31</v>
+      </c>
+      <c r="C41" t="n">
+        <v>62929.25</v>
+      </c>
+      <c r="D41" t="n">
+        <v>70910.78999999999</v>
+      </c>
+      <c r="E41" t="n">
+        <v>72882.78999999999</v>
+      </c>
+      <c r="F41" t="n">
+        <v>84947.21000000001</v>
+      </c>
+      <c r="G41" t="n">
+        <v>76924.66</v>
+      </c>
+      <c r="H41" t="n">
+        <v>85926.32000000001</v>
+      </c>
+      <c r="I41" t="n">
+        <v>80915.59</v>
+      </c>
+      <c r="J41" t="n">
+        <v>77946.39999999999</v>
+      </c>
+      <c r="K41" t="n">
+        <v>70862.88</v>
+      </c>
+      <c r="L41" t="n">
+        <v>72369.96000000001</v>
+      </c>
+      <c r="M41" t="n">
         <v>72486.10000000001</v>
-      </c>
-      <c r="C41" t="n">
-        <v>75386.81</v>
-      </c>
-      <c r="D41" t="n">
-        <v>75185.59</v>
-      </c>
-      <c r="E41" t="n">
-        <v>75454.14</v>
-      </c>
-      <c r="F41" t="n">
-        <v>77405.53</v>
-      </c>
-      <c r="G41" t="n">
-        <v>80393.50999999999</v>
       </c>
     </row>
     <row r="42">
@@ -1472,22 +2200,40 @@
         </is>
       </c>
       <c r="B42" t="n">
+        <v>172138.29</v>
+      </c>
+      <c r="C42" t="n">
+        <v>172156.64</v>
+      </c>
+      <c r="D42" t="n">
+        <v>172307.03</v>
+      </c>
+      <c r="E42" t="n">
+        <v>172237.48</v>
+      </c>
+      <c r="F42" t="n">
+        <v>172128.42</v>
+      </c>
+      <c r="G42" t="n">
+        <v>160794.25</v>
+      </c>
+      <c r="H42" t="n">
+        <v>160812.17</v>
+      </c>
+      <c r="I42" t="n">
+        <v>160808.19</v>
+      </c>
+      <c r="J42" t="n">
+        <v>160748.56</v>
+      </c>
+      <c r="K42" t="n">
+        <v>160759.53</v>
+      </c>
+      <c r="L42" t="n">
+        <v>160716.58</v>
+      </c>
+      <c r="M42" t="n">
         <v>160811.86</v>
-      </c>
-      <c r="C42" t="n">
-        <v>160754.51</v>
-      </c>
-      <c r="D42" t="n">
-        <v>160088.4</v>
-      </c>
-      <c r="E42" t="n">
-        <v>148322.45</v>
-      </c>
-      <c r="F42" t="n">
-        <v>148253.67</v>
-      </c>
-      <c r="G42" t="n">
-        <v>135477.09</v>
       </c>
     </row>
     <row r="43">
@@ -1497,22 +2243,40 @@
         </is>
       </c>
       <c r="B43" t="n">
+        <v>110024.63</v>
+      </c>
+      <c r="C43" t="n">
+        <v>110045.92</v>
+      </c>
+      <c r="D43" t="n">
+        <v>103511.47</v>
+      </c>
+      <c r="E43" t="n">
+        <v>101587.13</v>
+      </c>
+      <c r="F43" t="n">
+        <v>109792.06</v>
+      </c>
+      <c r="G43" t="n">
+        <v>111043.53</v>
+      </c>
+      <c r="H43" t="n">
+        <v>111375.39</v>
+      </c>
+      <c r="I43" t="n">
+        <v>111358.07</v>
+      </c>
+      <c r="J43" t="n">
+        <v>111272.83</v>
+      </c>
+      <c r="K43" t="n">
+        <v>111342.51</v>
+      </c>
+      <c r="L43" t="n">
+        <v>111347.45</v>
+      </c>
+      <c r="M43" t="n">
         <v>108150.53</v>
-      </c>
-      <c r="C43" t="n">
-        <v>102385.25</v>
-      </c>
-      <c r="D43" t="n">
-        <v>101999.51</v>
-      </c>
-      <c r="E43" t="n">
-        <v>103404.46</v>
-      </c>
-      <c r="F43" t="n">
-        <v>102255.27</v>
-      </c>
-      <c r="G43" t="n">
-        <v>111316.74</v>
       </c>
     </row>
     <row r="44">
@@ -1522,22 +2286,40 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>119468.33</v>
+      </c>
+      <c r="C44" t="n">
+        <v>148621.13</v>
+      </c>
+      <c r="D44" t="n">
+        <v>148597.38</v>
+      </c>
+      <c r="E44" t="n">
+        <v>148483.45</v>
+      </c>
+      <c r="F44" t="n">
+        <v>148251.15</v>
+      </c>
+      <c r="G44" t="n">
+        <v>148505.25</v>
+      </c>
+      <c r="H44" t="n">
+        <v>148687.85</v>
+      </c>
+      <c r="I44" t="n">
+        <v>148222.86</v>
+      </c>
+      <c r="J44" t="n">
+        <v>148443.41</v>
+      </c>
+      <c r="K44" t="n">
+        <v>148250.74</v>
+      </c>
+      <c r="L44" t="n">
+        <v>141741.46</v>
+      </c>
+      <c r="M44" t="n">
         <v>141340.28</v>
-      </c>
-      <c r="C44" t="n">
-        <v>141659.6</v>
-      </c>
-      <c r="D44" t="n">
-        <v>140758.21</v>
-      </c>
-      <c r="E44" t="n">
-        <v>141393.48</v>
-      </c>
-      <c r="F44" t="n">
-        <v>141634.74</v>
-      </c>
-      <c r="G44" t="n">
-        <v>141703.11</v>
       </c>
     </row>
     <row r="45">
@@ -1547,122 +2329,262 @@
         </is>
       </c>
       <c r="B45" t="n">
+        <v>669264.28</v>
+      </c>
+      <c r="C45" t="n">
+        <v>668821.3100000001</v>
+      </c>
+      <c r="D45" t="n">
+        <v>634406.28</v>
+      </c>
+      <c r="E45" t="n">
+        <v>526647.15</v>
+      </c>
+      <c r="F45" t="n">
+        <v>526202.4300000001</v>
+      </c>
+      <c r="G45" t="n">
+        <v>522102.04</v>
+      </c>
+      <c r="H45" t="n">
+        <v>527478.3</v>
+      </c>
+      <c r="I45" t="n">
+        <v>521544.61</v>
+      </c>
+      <c r="J45" t="n">
+        <v>526655.25</v>
+      </c>
+      <c r="K45" t="n">
+        <v>526262.5699999999</v>
+      </c>
+      <c r="L45" t="n">
+        <v>526213.1899999999</v>
+      </c>
+      <c r="M45" t="n">
         <v>526899.37</v>
-      </c>
-      <c r="C45" t="n">
-        <v>527162.2</v>
-      </c>
-      <c r="D45" t="n">
-        <v>524335</v>
-      </c>
-      <c r="E45" t="n">
-        <v>565490.22</v>
-      </c>
-      <c r="F45" t="n">
-        <v>527913.88</v>
-      </c>
-      <c r="G45" t="n">
-        <v>527726.79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Superfondo </t>
+          <t>Supefondo RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1308688.55</v>
+        <v>514459.8</v>
       </c>
       <c r="C46" t="n">
-        <v>1308674.72</v>
+        <v>625236.7</v>
       </c>
       <c r="D46" t="n">
-        <v>1303694.21</v>
-      </c>
-      <c r="E46" t="n">
-        <v>1432412.69</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1432627.89</v>
-      </c>
-      <c r="G46" t="n">
-        <v>1557020.2</v>
-      </c>
+        <v>914059.45</v>
+      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>Toronto Trust Multimercado</t>
+          <t xml:space="preserve">Superfondo </t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>38683.42</v>
+        <v>1098686.84</v>
       </c>
       <c r="C47" t="n">
-        <v>38641.8</v>
+        <v>1099068.37</v>
       </c>
       <c r="D47" t="n">
-        <v>38464.34</v>
+        <v>1098054.74</v>
       </c>
       <c r="E47" t="n">
-        <v>38626.52</v>
+        <v>1098877.42</v>
       </c>
       <c r="F47" t="n">
-        <v>38626.51</v>
+        <v>1138386.93</v>
       </c>
       <c r="G47" t="n">
-        <v>38617.99</v>
+        <v>1137706.34</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1204415.8</v>
+      </c>
+      <c r="I47" t="n">
+        <v>1270311.97</v>
+      </c>
+      <c r="J47" t="n">
+        <v>1309163.05</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1309074.19</v>
+      </c>
+      <c r="L47" t="n">
+        <v>1308712.82</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1308688.55</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>Toronto Trust Multimercado</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>219131.26</v>
+        <v>31412.83</v>
       </c>
       <c r="C48" t="n">
-        <v>217669.06</v>
+        <v>38662.05</v>
       </c>
       <c r="D48" t="n">
-        <v>216244.55</v>
+        <v>38658.6</v>
       </c>
       <c r="E48" t="n">
-        <v>220213.77</v>
+        <v>38638.69</v>
       </c>
       <c r="F48" t="n">
-        <v>216141.19</v>
+        <v>38619.29</v>
       </c>
       <c r="G48" t="n">
-        <v>219760.77</v>
+        <v>38611.24</v>
+      </c>
+      <c r="H48" t="n">
+        <v>38613.5</v>
+      </c>
+      <c r="I48" t="n">
+        <v>38652.85</v>
+      </c>
+      <c r="J48" t="n">
+        <v>38601.8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>38657.8</v>
+      </c>
+      <c r="L48" t="n">
+        <v>38677.64</v>
+      </c>
+      <c r="M48" t="n">
+        <v>38683.42</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
+          <t>Toronto trust Argy</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>15230.95</v>
+      </c>
+      <c r="C49" t="n">
+        <v>15184.49</v>
+      </c>
+      <c r="D49" t="n">
+        <v>24722.09</v>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr"/>
+      <c r="G49" t="inlineStr"/>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
+        <is>
+          <t>avg</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>216889.38</v>
+      </c>
+      <c r="C50" t="n">
+        <v>245189.98</v>
+      </c>
+      <c r="D50" t="n">
+        <v>229981.14</v>
+      </c>
+      <c r="E50" t="n">
+        <v>220217.43</v>
+      </c>
+      <c r="F50" t="n">
+        <v>218421.26</v>
+      </c>
+      <c r="G50" t="n">
+        <v>218060.27</v>
+      </c>
+      <c r="H50" t="n">
+        <v>219306.1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>219861.73</v>
+      </c>
+      <c r="J50" t="n">
+        <v>217824.68</v>
+      </c>
+      <c r="K50" t="n">
+        <v>221712.76</v>
+      </c>
+      <c r="L50" t="n">
+        <v>219122.43</v>
+      </c>
+      <c r="M50" t="n">
+        <v>219131.26</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
           <t>total</t>
         </is>
       </c>
-      <c r="B49" t="n">
+      <c r="B51" t="n">
+        <v>10410690.33</v>
+      </c>
+      <c r="C51" t="n">
+        <v>9072029.390000001</v>
+      </c>
+      <c r="D51" t="n">
+        <v>11039094.74</v>
+      </c>
+      <c r="E51" t="n">
+        <v>10130001.57</v>
+      </c>
+      <c r="F51" t="n">
+        <v>10047377.94</v>
+      </c>
+      <c r="G51" t="n">
+        <v>10030772.46</v>
+      </c>
+      <c r="H51" t="n">
+        <v>10088080.71</v>
+      </c>
+      <c r="I51" t="n">
+        <v>10113639.43</v>
+      </c>
+      <c r="J51" t="n">
+        <v>10019935.12</v>
+      </c>
+      <c r="K51" t="n">
+        <v>10198787.1</v>
+      </c>
+      <c r="L51" t="n">
+        <v>10079631.58</v>
+      </c>
+      <c r="M51" t="n">
         <v>10080037.83</v>
-      </c>
-      <c r="C49" t="n">
-        <v>10012776.89</v>
-      </c>
-      <c r="D49" t="n">
-        <v>9947249.48</v>
-      </c>
-      <c r="E49" t="n">
-        <v>10129833.45</v>
-      </c>
-      <c r="F49" t="n">
-        <v>9942494.77</v>
-      </c>
-      <c r="G49" t="n">
-        <v>10108995.48</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/BMA.xlsx
+++ b/backend/src/excel_handler/files/BMA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,62 +436,72 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>06-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>02-06-2023</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
         </is>
       </c>
     </row>
@@ -502,40 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127119.16</v>
+        <v>135195.82</v>
       </c>
       <c r="C2" t="n">
-        <v>126964.74</v>
+        <v>135216.77</v>
       </c>
       <c r="D2" t="n">
-        <v>153313.4</v>
+        <v>134730.7</v>
       </c>
       <c r="E2" t="n">
-        <v>153275.95</v>
+        <v>135148.45</v>
       </c>
       <c r="F2" t="n">
-        <v>178378.1</v>
+        <v>147250.29</v>
       </c>
       <c r="G2" t="n">
-        <v>178517.1</v>
+        <v>147166.64</v>
       </c>
       <c r="H2" t="n">
-        <v>190902.63</v>
+        <v>147196</v>
       </c>
       <c r="I2" t="n">
-        <v>164914.22</v>
+        <v>147185.15</v>
       </c>
       <c r="J2" t="n">
-        <v>164747.55</v>
+        <v>175958.37</v>
       </c>
       <c r="K2" t="n">
-        <v>158072.16</v>
+        <v>181527.4</v>
       </c>
       <c r="L2" t="n">
-        <v>135337.85</v>
+        <v>181722.07</v>
       </c>
       <c r="M2" t="n">
-        <v>135195.82</v>
+        <v>181480.86</v>
+      </c>
+      <c r="N2" t="n">
+        <v>189591.01</v>
+      </c>
+      <c r="O2" t="n">
+        <v>197203.78</v>
       </c>
     </row>
     <row r="3">
@@ -545,40 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>278044.48</v>
+        <v>304579.45</v>
       </c>
       <c r="C3" t="n">
-        <v>278103.23</v>
+        <v>297571.27</v>
       </c>
       <c r="D3" t="n">
-        <v>277897.95</v>
+        <v>296744.73</v>
       </c>
       <c r="E3" t="n">
-        <v>296208.28</v>
+        <v>297919.16</v>
       </c>
       <c r="F3" t="n">
-        <v>279554.88</v>
+        <v>297479</v>
       </c>
       <c r="G3" t="n">
-        <v>287539.72</v>
+        <v>305747.5</v>
       </c>
       <c r="H3" t="n">
-        <v>276329.41</v>
+        <v>306016.72</v>
       </c>
       <c r="I3" t="n">
-        <v>276576.67</v>
+        <v>306249.92</v>
       </c>
       <c r="J3" t="n">
-        <v>276214.82</v>
+        <v>322845.2</v>
       </c>
       <c r="K3" t="n">
-        <v>284819.95</v>
+        <v>322655.3</v>
       </c>
       <c r="L3" t="n">
-        <v>274438.09</v>
+        <v>322337.05</v>
       </c>
       <c r="M3" t="n">
-        <v>304579.45</v>
+        <v>336174.35</v>
+      </c>
+      <c r="N3" t="n">
+        <v>336549.43</v>
+      </c>
+      <c r="O3" t="n">
+        <v>336077.72</v>
       </c>
     </row>
     <row r="4">
@@ -588,40 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>58845.08</v>
+        <v>61820.49</v>
       </c>
       <c r="C4" t="n">
-        <v>58867.61</v>
+        <v>61866.47</v>
       </c>
       <c r="D4" t="n">
-        <v>61873.11</v>
+        <v>61571.01</v>
       </c>
       <c r="E4" t="n">
-        <v>61841.25</v>
+        <v>61858.13</v>
       </c>
       <c r="F4" t="n">
-        <v>61804.6</v>
+        <v>61816.15</v>
       </c>
       <c r="G4" t="n">
-        <v>61739.8</v>
+        <v>61840.16</v>
       </c>
       <c r="H4" t="n">
-        <v>61888.6</v>
+        <v>61817.67</v>
       </c>
       <c r="I4" t="n">
-        <v>61896.32</v>
+        <v>61885.5</v>
       </c>
       <c r="J4" t="n">
-        <v>61850.58</v>
+        <v>61885.53</v>
       </c>
       <c r="K4" t="n">
-        <v>61826.21</v>
+        <v>61814.89</v>
       </c>
       <c r="L4" t="n">
-        <v>61830.77</v>
+        <v>61840.82</v>
       </c>
       <c r="M4" t="n">
-        <v>61820.49</v>
+        <v>61722.67</v>
+      </c>
+      <c r="N4" t="n">
+        <v>61916.46</v>
+      </c>
+      <c r="O4" t="n">
+        <v>61843.68</v>
       </c>
     </row>
     <row r="5">
@@ -631,40 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>39837.91</v>
+        <v>45355.57</v>
       </c>
       <c r="C5" t="n">
-        <v>45298</v>
+        <v>51423.95</v>
       </c>
       <c r="D5" t="n">
-        <v>45349.19</v>
+        <v>51307.95</v>
       </c>
       <c r="E5" t="n">
-        <v>45343.49</v>
+        <v>51441.29</v>
       </c>
       <c r="F5" t="n">
-        <v>45343.61</v>
+        <v>72090.58</v>
       </c>
       <c r="G5" t="n">
-        <v>45325.63</v>
+        <v>78751.28</v>
       </c>
       <c r="H5" t="n">
-        <v>45298.06</v>
+        <v>81988.34</v>
       </c>
       <c r="I5" t="n">
-        <v>45384.11</v>
+        <v>79582.03999999999</v>
       </c>
       <c r="J5" t="n">
-        <v>45394.59</v>
+        <v>99408.66</v>
       </c>
       <c r="K5" t="n">
-        <v>45381</v>
+        <v>99362.09</v>
       </c>
       <c r="L5" t="n">
-        <v>45308.29</v>
+        <v>101389.57</v>
       </c>
       <c r="M5" t="n">
-        <v>45355.57</v>
+        <v>110562.11</v>
+      </c>
+      <c r="N5" t="n">
+        <v>122353.56</v>
+      </c>
+      <c r="O5" t="n">
+        <v>116268.45</v>
       </c>
     </row>
     <row r="6">
@@ -674,40 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>108971.22</v>
+        <v>141934.82</v>
       </c>
       <c r="C6" t="n">
-        <v>116254.12</v>
+        <v>141886.65</v>
       </c>
       <c r="D6" t="n">
-        <v>116299.79</v>
+        <v>141301.19</v>
       </c>
       <c r="E6" t="n">
-        <v>116237.97</v>
+        <v>141895.21</v>
       </c>
       <c r="F6" t="n">
-        <v>116195.97</v>
+        <v>141716.76</v>
       </c>
       <c r="G6" t="n">
-        <v>116253.57</v>
+        <v>141659.42</v>
       </c>
       <c r="H6" t="n">
-        <v>116331.73</v>
+        <v>141962.14</v>
       </c>
       <c r="I6" t="n">
-        <v>116399.02</v>
+        <v>141896.46</v>
       </c>
       <c r="J6" t="n">
-        <v>116381.23</v>
+        <v>164897.96</v>
       </c>
       <c r="K6" t="n">
-        <v>141937.18</v>
+        <v>165134.88</v>
       </c>
       <c r="L6" t="n">
-        <v>141831.7</v>
+        <v>165037.83</v>
       </c>
       <c r="M6" t="n">
-        <v>141934.82</v>
+        <v>210591.79</v>
+      </c>
+      <c r="N6" t="n">
+        <v>237532.46</v>
+      </c>
+      <c r="O6" t="n">
+        <v>237454.26</v>
       </c>
     </row>
     <row r="7">
@@ -717,40 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.74</v>
+        <v>41.03</v>
       </c>
       <c r="C7" t="n">
-        <v>45.63</v>
+        <v>40.66</v>
       </c>
       <c r="D7" t="n">
-        <v>44.43</v>
+        <v>39.7</v>
       </c>
       <c r="E7" t="n">
-        <v>45.24</v>
+        <v>40.54</v>
       </c>
       <c r="F7" t="n">
-        <v>44.29</v>
+        <v>35.62</v>
       </c>
       <c r="G7" t="n">
-        <v>44.69</v>
+        <v>35.83</v>
       </c>
       <c r="H7" t="n">
-        <v>44.67</v>
+        <v>36.18</v>
       </c>
       <c r="I7" t="n">
-        <v>43.83</v>
+        <v>36.32</v>
       </c>
       <c r="J7" t="n">
-        <v>43.43</v>
+        <v>34.62</v>
       </c>
       <c r="K7" t="n">
-        <v>41.02</v>
+        <v>33.28</v>
       </c>
       <c r="L7" t="n">
-        <v>41.28</v>
+        <v>33.66</v>
       </c>
       <c r="M7" t="n">
-        <v>41.03</v>
+        <v>32.74</v>
+      </c>
+      <c r="N7" t="n">
+        <v>33.51</v>
+      </c>
+      <c r="O7" t="n">
+        <v>32.76</v>
       </c>
     </row>
     <row r="8">
@@ -760,40 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>156909.19</v>
+        <v>213898.33</v>
       </c>
       <c r="C8" t="n">
-        <v>156874.24</v>
+        <v>213609.93</v>
       </c>
       <c r="D8" t="n">
-        <v>177549.07</v>
+        <v>212591.59</v>
       </c>
       <c r="E8" t="n">
-        <v>213845.57</v>
+        <v>213647.74</v>
       </c>
       <c r="F8" t="n">
-        <v>213807</v>
+        <v>213495.76</v>
       </c>
       <c r="G8" t="n">
-        <v>213609.85</v>
+        <v>213931.36</v>
       </c>
       <c r="H8" t="n">
-        <v>213617.22</v>
+        <v>213785.96</v>
       </c>
       <c r="I8" t="n">
-        <v>213789.29</v>
+        <v>213613.45</v>
       </c>
       <c r="J8" t="n">
-        <v>213696.49</v>
+        <v>213681.31</v>
       </c>
       <c r="K8" t="n">
-        <v>213667.54</v>
+        <v>213908.98</v>
       </c>
       <c r="L8" t="n">
-        <v>213851.57</v>
+        <v>213376.62</v>
       </c>
       <c r="M8" t="n">
-        <v>213898.33</v>
+        <v>213582.71</v>
+      </c>
+      <c r="N8" t="n">
+        <v>213535.74</v>
+      </c>
+      <c r="O8" t="n">
+        <v>213722.5</v>
       </c>
     </row>
     <row r="9">
@@ -803,40 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>267484.69</v>
+        <v>282675.69</v>
       </c>
       <c r="C9" t="n">
-        <v>282623.59</v>
+        <v>282786.6</v>
       </c>
       <c r="D9" t="n">
-        <v>282780.62</v>
+        <v>281726.79</v>
       </c>
       <c r="E9" t="n">
-        <v>282743.97</v>
+        <v>282725.55</v>
       </c>
       <c r="F9" t="n">
-        <v>282799.11</v>
+        <v>282572.04</v>
       </c>
       <c r="G9" t="n">
-        <v>282671.95</v>
+        <v>282679.08</v>
       </c>
       <c r="H9" t="n">
-        <v>282851.84</v>
+        <v>282741.36</v>
       </c>
       <c r="I9" t="n">
-        <v>282738.46</v>
+        <v>282640.91</v>
       </c>
       <c r="J9" t="n">
-        <v>282780</v>
+        <v>282819.16</v>
       </c>
       <c r="K9" t="n">
-        <v>282660.43</v>
+        <v>282800.46</v>
       </c>
       <c r="L9" t="n">
-        <v>282774.83</v>
+        <v>282796.6</v>
       </c>
       <c r="M9" t="n">
-        <v>282675.69</v>
+        <v>282782.58</v>
+      </c>
+      <c r="N9" t="n">
+        <v>282746.03</v>
+      </c>
+      <c r="O9" t="n">
+        <v>282719.37</v>
       </c>
     </row>
     <row r="10">
@@ -846,40 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6660.79</v>
+        <v>9332.559999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>6658.4</v>
+        <v>9322.4</v>
       </c>
       <c r="D10" t="n">
-        <v>6653.1</v>
+        <v>9305.889999999999</v>
       </c>
       <c r="E10" t="n">
-        <v>6656.6</v>
+        <v>9339.450000000001</v>
       </c>
       <c r="F10" t="n">
-        <v>6665.04</v>
+        <v>9333.66</v>
       </c>
       <c r="G10" t="n">
-        <v>9333.91</v>
+        <v>9343.110000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>9319.1</v>
+        <v>9327.889999999999</v>
       </c>
       <c r="I10" t="n">
-        <v>9328.559999999999</v>
+        <v>9342.530000000001</v>
       </c>
       <c r="J10" t="n">
-        <v>9329.16</v>
+        <v>9349.6</v>
       </c>
       <c r="K10" t="n">
-        <v>9314.309999999999</v>
+        <v>9328.219999999999</v>
       </c>
       <c r="L10" t="n">
-        <v>9344.6</v>
+        <v>9326.879999999999</v>
       </c>
       <c r="M10" t="n">
-        <v>9332.559999999999</v>
+        <v>10759.89</v>
+      </c>
+      <c r="N10" t="n">
+        <v>10775.6</v>
+      </c>
+      <c r="O10" t="n">
+        <v>10777.02</v>
       </c>
     </row>
     <row r="11">
@@ -889,40 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>469823.83</v>
+        <v>469278.52</v>
       </c>
       <c r="C11" t="n">
-        <v>470073.19</v>
+        <v>468940.24</v>
       </c>
       <c r="D11" t="n">
-        <v>469469.49</v>
+        <v>467662.58</v>
       </c>
       <c r="E11" t="n">
-        <v>469287.72</v>
+        <v>469150.55</v>
       </c>
       <c r="F11" t="n">
-        <v>469567.18</v>
+        <v>472172.01</v>
       </c>
       <c r="G11" t="n">
-        <v>470477.31</v>
+        <v>472340.14</v>
       </c>
       <c r="H11" t="n">
-        <v>469876.11</v>
+        <v>471690.65</v>
       </c>
       <c r="I11" t="n">
-        <v>470499.67</v>
+        <v>471210.8</v>
       </c>
       <c r="J11" t="n">
-        <v>469747.91</v>
+        <v>471921.47</v>
       </c>
       <c r="K11" t="n">
-        <v>469139.28</v>
+        <v>471813.52</v>
       </c>
       <c r="L11" t="n">
-        <v>468930.47</v>
+        <v>471005.04</v>
       </c>
       <c r="M11" t="n">
-        <v>469278.52</v>
+        <v>471608.39</v>
+      </c>
+      <c r="N11" t="n">
+        <v>472394.2</v>
+      </c>
+      <c r="O11" t="n">
+        <v>471769.39</v>
       </c>
     </row>
     <row r="12">
@@ -932,40 +1002,46 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>17157.68</v>
+        <v>2012.89</v>
       </c>
       <c r="C12" t="n">
-        <v>17153.48</v>
+        <v>2013.47</v>
       </c>
       <c r="D12" t="n">
-        <v>17147.37</v>
+        <v>2005.2</v>
       </c>
       <c r="E12" t="n">
-        <v>17166.51</v>
+        <v>2010.72</v>
       </c>
       <c r="F12" t="n">
-        <v>17029.81</v>
+        <v>2010.49</v>
       </c>
       <c r="G12" t="n">
-        <v>17024.51</v>
+        <v>2012.08</v>
       </c>
       <c r="H12" t="n">
-        <v>17020</v>
+        <v>2012.91</v>
       </c>
       <c r="I12" t="n">
-        <v>17022.71</v>
+        <v>2012.99</v>
       </c>
       <c r="J12" t="n">
-        <v>16987.79</v>
+        <v>2012.92</v>
       </c>
       <c r="K12" t="n">
-        <v>2012.23</v>
+        <v>2012.59</v>
       </c>
       <c r="L12" t="n">
-        <v>2010.81</v>
+        <v>10892.73</v>
       </c>
       <c r="M12" t="n">
-        <v>2012.89</v>
+        <v>10894.95</v>
+      </c>
+      <c r="N12" t="n">
+        <v>10890.6</v>
+      </c>
+      <c r="O12" t="n">
+        <v>3692.96</v>
       </c>
     </row>
     <row r="13">
@@ -975,40 +1051,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>10593.73</v>
+        <v>10599.71</v>
       </c>
       <c r="C13" t="n">
-        <v>10604.76</v>
+        <v>10611.86</v>
       </c>
       <c r="D13" t="n">
-        <v>10607.71</v>
+        <v>10554.05</v>
       </c>
       <c r="E13" t="n">
-        <v>10589.39</v>
+        <v>10607.46</v>
       </c>
       <c r="F13" t="n">
-        <v>10602.26</v>
+        <v>10595.22</v>
       </c>
       <c r="G13" t="n">
-        <v>10593.14</v>
+        <v>10605.84</v>
       </c>
       <c r="H13" t="n">
-        <v>10598.24</v>
+        <v>10591.09</v>
       </c>
       <c r="I13" t="n">
-        <v>10611.14</v>
+        <v>10590.14</v>
       </c>
       <c r="J13" t="n">
-        <v>10594.96</v>
+        <v>10594.65</v>
       </c>
       <c r="K13" t="n">
-        <v>10600.09</v>
+        <v>10588.49</v>
       </c>
       <c r="L13" t="n">
-        <v>10602.86</v>
+        <v>10590.85</v>
       </c>
       <c r="M13" t="n">
-        <v>10599.71</v>
+        <v>10608.18</v>
+      </c>
+      <c r="N13" t="n">
+        <v>10599.46</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10599.24</v>
       </c>
     </row>
     <row r="14">
@@ -1018,40 +1100,46 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>254254.97</v>
+        <v>240838.07</v>
       </c>
       <c r="C14" t="n">
-        <v>260837.5</v>
+        <v>237535.86</v>
       </c>
       <c r="D14" t="n">
-        <v>240986.5</v>
+        <v>222542.06</v>
       </c>
       <c r="E14" t="n">
-        <v>240997.65</v>
+        <v>237985.91</v>
       </c>
       <c r="F14" t="n">
-        <v>241010.86</v>
+        <v>246296.88</v>
       </c>
       <c r="G14" t="n">
-        <v>240973.01</v>
+        <v>250866.79</v>
       </c>
       <c r="H14" t="n">
-        <v>240820.35</v>
+        <v>250695.28</v>
       </c>
       <c r="I14" t="n">
-        <v>241130.86</v>
+        <v>259281.64</v>
       </c>
       <c r="J14" t="n">
-        <v>240713.34</v>
+        <v>263178.48</v>
       </c>
       <c r="K14" t="n">
-        <v>241021.12</v>
+        <v>263555.74</v>
       </c>
       <c r="L14" t="n">
-        <v>241008.77</v>
+        <v>268684.72</v>
       </c>
       <c r="M14" t="n">
-        <v>240838.07</v>
+        <v>291937.79</v>
+      </c>
+      <c r="N14" t="n">
+        <v>292237.13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>303675.38</v>
       </c>
     </row>
     <row r="15">
@@ -1061,40 +1149,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>79224.77</v>
+        <v>86660.61</v>
       </c>
       <c r="C15" t="n">
-        <v>83969.24000000001</v>
+        <v>86606.09</v>
       </c>
       <c r="D15" t="n">
-        <v>83969.10000000001</v>
+        <v>86296.60000000001</v>
       </c>
       <c r="E15" t="n">
-        <v>87477.25</v>
+        <v>86666.13</v>
       </c>
       <c r="F15" t="n">
-        <v>90733.19</v>
+        <v>86699.98</v>
       </c>
       <c r="G15" t="n">
-        <v>90683.67</v>
+        <v>86614.08</v>
       </c>
       <c r="H15" t="n">
-        <v>90664.78999999999</v>
+        <v>84833.53</v>
       </c>
       <c r="I15" t="n">
-        <v>90741.11</v>
+        <v>84841.28999999999</v>
       </c>
       <c r="J15" t="n">
-        <v>90664.69</v>
+        <v>86262.75</v>
       </c>
       <c r="K15" t="n">
-        <v>90690.85000000001</v>
+        <v>110323.34</v>
       </c>
       <c r="L15" t="n">
-        <v>86651.85000000001</v>
+        <v>121653.97</v>
       </c>
       <c r="M15" t="n">
-        <v>86660.61</v>
+        <v>123863.29</v>
+      </c>
+      <c r="N15" t="n">
+        <v>126295.55</v>
+      </c>
+      <c r="O15" t="n">
+        <v>131443.08</v>
       </c>
     </row>
     <row r="16">
@@ -1104,40 +1198,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>50132.93</v>
+        <v>91407.19</v>
       </c>
       <c r="C16" t="n">
-        <v>91430.75999999999</v>
+        <v>91401.58</v>
       </c>
       <c r="D16" t="n">
-        <v>91562.03999999999</v>
+        <v>91177.44</v>
       </c>
       <c r="E16" t="n">
-        <v>91468.85000000001</v>
+        <v>91466.36</v>
       </c>
       <c r="F16" t="n">
-        <v>91539.33</v>
+        <v>91494.53999999999</v>
       </c>
       <c r="G16" t="n">
-        <v>91503.92999999999</v>
+        <v>91564.02</v>
       </c>
       <c r="H16" t="n">
-        <v>91419.25</v>
+        <v>91556.63</v>
       </c>
       <c r="I16" t="n">
-        <v>91563.52</v>
+        <v>91399.69</v>
       </c>
       <c r="J16" t="n">
-        <v>91437.34</v>
+        <v>91516.81</v>
       </c>
       <c r="K16" t="n">
-        <v>91601.99000000001</v>
+        <v>91545.64999999999</v>
       </c>
       <c r="L16" t="n">
-        <v>91415.11</v>
+        <v>91461.84</v>
       </c>
       <c r="M16" t="n">
-        <v>91407.19</v>
+        <v>91563.24000000001</v>
+      </c>
+      <c r="N16" t="n">
+        <v>91566.44</v>
+      </c>
+      <c r="O16" t="n">
+        <v>91499.25</v>
       </c>
     </row>
     <row r="17">
@@ -1147,1248 +1247,1454 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>691572.96</v>
+        <v>658311.11</v>
       </c>
       <c r="C17" t="n">
-        <v>691866.86</v>
+        <v>654527.35</v>
       </c>
       <c r="D17" t="n">
-        <v>692596.8199999999</v>
+        <v>645108.62</v>
       </c>
       <c r="E17" t="n">
-        <v>690457.64</v>
+        <v>644542.0699999999</v>
       </c>
       <c r="F17" t="n">
-        <v>690309.1800000001</v>
+        <v>644163.6800000001</v>
       </c>
       <c r="G17" t="n">
-        <v>689823.95</v>
+        <v>644340.09</v>
       </c>
       <c r="H17" t="n">
-        <v>687671.39</v>
+        <v>650307.71</v>
       </c>
       <c r="I17" t="n">
-        <v>680659.71</v>
+        <v>661681.92</v>
       </c>
       <c r="J17" t="n">
-        <v>674166.3</v>
+        <v>661680.33</v>
       </c>
       <c r="K17" t="n">
-        <v>668321.0699999999</v>
+        <v>660801.23</v>
       </c>
       <c r="L17" t="n">
-        <v>665926.97</v>
+        <v>661426.42</v>
       </c>
       <c r="M17" t="n">
-        <v>658311.11</v>
+        <v>661428.09</v>
+      </c>
+      <c r="N17" t="n">
+        <v>666032.85</v>
+      </c>
+      <c r="O17" t="n">
+        <v>666243.9399999999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Acciones Argentina</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>145015.28</v>
-      </c>
+          <t>Compass Crecimiento II</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr"/>
-      <c r="D18" t="n">
-        <v>162915.44</v>
-      </c>
-      <c r="E18" t="n">
-        <v>162969.61</v>
-      </c>
-      <c r="F18" t="n">
-        <v>162808.69</v>
-      </c>
-      <c r="G18" t="n">
-        <v>163141.72</v>
-      </c>
-      <c r="H18" t="n">
-        <v>162882.13</v>
-      </c>
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr"/>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="n">
-        <v>162783.46</v>
+        <v>2388.99</v>
       </c>
       <c r="J18" t="n">
-        <v>162695.02</v>
+        <v>2382.31</v>
       </c>
       <c r="K18" t="n">
-        <v>162981.87</v>
+        <v>2384.31</v>
       </c>
       <c r="L18" t="n">
-        <v>162889.49</v>
+        <v>2380.05</v>
       </c>
       <c r="M18" t="n">
-        <v>162937.44</v>
+        <v>2382.51</v>
+      </c>
+      <c r="N18" t="n">
+        <v>2384.92</v>
+      </c>
+      <c r="O18" t="n">
+        <v>2386.23</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>Consultatio Renta Variable</t>
+          <t>Consultatio Acciones Argentina</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>198285.29</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>162937.44</v>
+      </c>
+      <c r="C19" t="n">
+        <v>162841.79</v>
+      </c>
       <c r="D19" t="n">
-        <v>198486.05</v>
+        <v>162306.05</v>
       </c>
       <c r="E19" t="n">
-        <v>198499.78</v>
+        <v>169911.28</v>
       </c>
       <c r="F19" t="n">
-        <v>198456.52</v>
+        <v>185734.39</v>
       </c>
       <c r="G19" t="n">
-        <v>198412.93</v>
+        <v>211027.03</v>
       </c>
       <c r="H19" t="n">
-        <v>198176.06</v>
+        <v>240408.41</v>
       </c>
       <c r="I19" t="n">
-        <v>198312.5</v>
+        <v>240209.79</v>
       </c>
       <c r="J19" t="n">
-        <v>198273.13</v>
+        <v>241023.47</v>
       </c>
       <c r="K19" t="n">
-        <v>198326.93</v>
+        <v>240393.79</v>
       </c>
       <c r="L19" t="n">
-        <v>198461.35</v>
+        <v>256040.59</v>
       </c>
       <c r="M19" t="n">
-        <v>198508.61</v>
+        <v>255855.49</v>
+      </c>
+      <c r="N19" t="n">
+        <v>255691.66</v>
+      </c>
+      <c r="O19" t="n">
+        <v>255737.59</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Delta Acciones</t>
+          <t>Consultatio Renta Variable</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>74425.36</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>198508.61</v>
+      </c>
+      <c r="C20" t="n">
+        <v>198431.18</v>
+      </c>
       <c r="D20" t="n">
-        <v>74378.22</v>
+        <v>197552.25</v>
       </c>
       <c r="E20" t="n">
-        <v>74481.42999999999</v>
+        <v>198410.94</v>
       </c>
       <c r="F20" t="n">
-        <v>74476.23</v>
+        <v>198497.1</v>
       </c>
       <c r="G20" t="n">
-        <v>74489.53999999999</v>
+        <v>198293.4</v>
       </c>
       <c r="H20" t="n">
-        <v>74479.28999999999</v>
+        <v>198240.43</v>
       </c>
       <c r="I20" t="n">
-        <v>74406.56</v>
+        <v>198158.16</v>
       </c>
       <c r="J20" t="n">
-        <v>74459.42999999999</v>
+        <v>198215.26</v>
       </c>
       <c r="K20" t="n">
-        <v>74394.39999999999</v>
+        <v>198470.26</v>
       </c>
       <c r="L20" t="n">
-        <v>74404.53</v>
+        <v>198149.15</v>
       </c>
       <c r="M20" t="n">
-        <v>74419.67999999999</v>
+        <v>198174.57</v>
+      </c>
+      <c r="N20" t="n">
+        <v>198442.48</v>
+      </c>
+      <c r="O20" t="n">
+        <v>198278.93</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>Delta Internacional</t>
+          <t>Delta Acciones</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1350.57</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>74419.67999999999</v>
+      </c>
+      <c r="C21" t="n">
+        <v>74457.14999999999</v>
+      </c>
       <c r="D21" t="n">
-        <v>1349.61</v>
+        <v>74195.00999999999</v>
       </c>
       <c r="E21" t="n">
-        <v>1350.1</v>
+        <v>74417.36</v>
       </c>
       <c r="F21" t="n">
-        <v>1347.57</v>
+        <v>74420.78</v>
       </c>
       <c r="G21" t="n">
-        <v>1352.12</v>
+        <v>74497.09</v>
       </c>
       <c r="H21" t="n">
-        <v>1351.1</v>
+        <v>74395.72</v>
       </c>
       <c r="I21" t="n">
-        <v>1349.67</v>
+        <v>74420.87</v>
       </c>
       <c r="J21" t="n">
-        <v>1353.36</v>
+        <v>74424.67</v>
       </c>
       <c r="K21" t="n">
-        <v>1350.77</v>
+        <v>74400.86</v>
       </c>
       <c r="L21" t="n">
-        <v>1353.69</v>
+        <v>74510.07000000001</v>
       </c>
       <c r="M21" t="n">
-        <v>1348.1</v>
+        <v>74401.34</v>
+      </c>
+      <c r="N21" t="n">
+        <v>74486.56</v>
+      </c>
+      <c r="O21" t="n">
+        <v>74440.23</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>Delta Latinoamerica</t>
+          <t>Delta Internacional</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3549.04</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>1348.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1350.08</v>
+      </c>
       <c r="D22" t="n">
-        <v>3545.99</v>
+        <v>1344.97</v>
       </c>
       <c r="E22" t="n">
-        <v>3553.11</v>
+        <v>1347.7</v>
       </c>
       <c r="F22" t="n">
-        <v>3555.02</v>
+        <v>1349.72</v>
       </c>
       <c r="G22" t="n">
-        <v>3550.67</v>
+        <v>1353.49</v>
       </c>
       <c r="H22" t="n">
-        <v>3551.37</v>
+        <v>1351.09</v>
       </c>
       <c r="I22" t="n">
-        <v>3554.19</v>
+        <v>1349.74</v>
       </c>
       <c r="J22" t="n">
-        <v>3550.06</v>
+        <v>1352.78</v>
       </c>
       <c r="K22" t="n">
-        <v>3554.6</v>
+        <v>1353.29</v>
       </c>
       <c r="L22" t="n">
-        <v>3546.35</v>
+        <v>1353.37</v>
       </c>
       <c r="M22" t="n">
-        <v>3549.71</v>
+        <v>1348.11</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1348.4</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1347.07</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>Delta Select</t>
+          <t>Delta Latinoamerica</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>394376.61</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>3549.71</v>
+      </c>
+      <c r="C23" t="n">
+        <v>3545.19</v>
+      </c>
       <c r="D23" t="n">
-        <v>389188.58</v>
+        <v>3532.51</v>
       </c>
       <c r="E23" t="n">
-        <v>380274.03</v>
+        <v>3549.56</v>
       </c>
       <c r="F23" t="n">
-        <v>377667.47</v>
+        <v>3553.35</v>
       </c>
       <c r="G23" t="n">
-        <v>377813.76</v>
+        <v>3551.22</v>
       </c>
       <c r="H23" t="n">
-        <v>377886.23</v>
+        <v>3550.74</v>
       </c>
       <c r="I23" t="n">
-        <v>377489.44</v>
+        <v>3551.09</v>
       </c>
       <c r="J23" t="n">
-        <v>377573.84</v>
+        <v>3552.64</v>
       </c>
       <c r="K23" t="n">
-        <v>377380.97</v>
+        <v>3548.03</v>
       </c>
       <c r="L23" t="n">
-        <v>377600.16</v>
+        <v>3555.18</v>
       </c>
       <c r="M23" t="n">
-        <v>377626.87</v>
+        <v>3551.21</v>
+      </c>
+      <c r="N23" t="n">
+        <v>3554.65</v>
+      </c>
+      <c r="O23" t="n">
+        <v>3551.74</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>Delta gestion V</t>
+          <t>Delta Select</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>162599.43</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>377626.87</v>
+      </c>
+      <c r="C24" t="n">
+        <v>377629.97</v>
+      </c>
       <c r="D24" t="n">
-        <v>162946.19</v>
+        <v>376481.61</v>
       </c>
       <c r="E24" t="n">
-        <v>162574.85</v>
+        <v>377858.92</v>
       </c>
       <c r="F24" t="n">
-        <v>163042.9</v>
+        <v>377651.15</v>
       </c>
       <c r="G24" t="n">
-        <v>149734.4</v>
+        <v>377280.89</v>
       </c>
       <c r="H24" t="n">
-        <v>149888.11</v>
+        <v>377213.91</v>
       </c>
       <c r="I24" t="n">
-        <v>149555.88</v>
+        <v>377264.18</v>
       </c>
       <c r="J24" t="n">
-        <v>149956.69</v>
+        <v>377289.54</v>
       </c>
       <c r="K24" t="n">
-        <v>149919.53</v>
+        <v>377700</v>
       </c>
       <c r="L24" t="n">
-        <v>150114.23</v>
+        <v>377352.86</v>
       </c>
       <c r="M24" t="n">
-        <v>149467.64</v>
+        <v>377335.33</v>
+      </c>
+      <c r="N24" t="n">
+        <v>377431.68</v>
+      </c>
+      <c r="O24" t="n">
+        <v>377739.2</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>FBA Acciones Argentinas</t>
+          <t>Delta gestion V</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>158535.18</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>149467.64</v>
+      </c>
+      <c r="C25" t="n">
+        <v>150130.24</v>
+      </c>
       <c r="D25" t="n">
-        <v>191950.87</v>
+        <v>149311.12</v>
       </c>
       <c r="E25" t="n">
-        <v>223159.47</v>
+        <v>149574.08</v>
       </c>
       <c r="F25" t="n">
-        <v>230213.01</v>
+        <v>149417.47</v>
       </c>
       <c r="G25" t="n">
-        <v>227087.01</v>
+        <v>138018.62</v>
       </c>
       <c r="H25" t="n">
-        <v>230007.03</v>
+        <v>137906.93</v>
       </c>
       <c r="I25" t="n">
-        <v>220835.75</v>
+        <v>137703.32</v>
       </c>
       <c r="J25" t="n">
-        <v>231658.93</v>
+        <v>137786.38</v>
       </c>
       <c r="K25" t="n">
-        <v>235376.28</v>
+        <v>138214.47</v>
       </c>
       <c r="L25" t="n">
-        <v>231477.67</v>
+        <v>137841.81</v>
       </c>
       <c r="M25" t="n">
-        <v>231284.39</v>
+        <v>138049.92</v>
+      </c>
+      <c r="N25" t="n">
+        <v>110340.02</v>
+      </c>
+      <c r="O25" t="n">
+        <v>110652.49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>FBA Calificado</t>
+          <t>FBA Acciones Argentinas</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>155943.39</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
+        <v>231284.39</v>
+      </c>
+      <c r="C26" t="n">
+        <v>225320.26</v>
+      </c>
       <c r="D26" t="n">
-        <v>198637.42</v>
+        <v>224265.22</v>
       </c>
       <c r="E26" t="n">
-        <v>211105.25</v>
+        <v>221232.36</v>
       </c>
       <c r="F26" t="n">
-        <v>211655.21</v>
+        <v>204205.67</v>
       </c>
       <c r="G26" t="n">
-        <v>209406.01</v>
+        <v>205075.07</v>
       </c>
       <c r="H26" t="n">
-        <v>209327</v>
+        <v>204916.36</v>
       </c>
       <c r="I26" t="n">
-        <v>209289.45</v>
+        <v>207080.1</v>
       </c>
       <c r="J26" t="n">
-        <v>214950.79</v>
+        <v>207190.76</v>
       </c>
       <c r="K26" t="n">
-        <v>225653.2</v>
+        <v>207070.3</v>
       </c>
       <c r="L26" t="n">
-        <v>219881.48</v>
+        <v>207322.94</v>
       </c>
       <c r="M26" t="n">
-        <v>220045.18</v>
+        <v>215504.02</v>
+      </c>
+      <c r="N26" t="n">
+        <v>243957.48</v>
+      </c>
+      <c r="O26" t="n">
+        <v>251116.66</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>Fima Acciones</t>
+          <t>FBA Calificado</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>291688.7</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
+        <v>220045.18</v>
+      </c>
+      <c r="C27" t="n">
+        <v>211077.42</v>
+      </c>
       <c r="D27" t="n">
-        <v>285945.47</v>
+        <v>210136.69</v>
       </c>
       <c r="E27" t="n">
-        <v>313502.85</v>
+        <v>205011.63</v>
       </c>
       <c r="F27" t="n">
-        <v>313123.28</v>
+        <v>192327.1</v>
       </c>
       <c r="G27" t="n">
-        <v>313251.97</v>
+        <v>190592.47</v>
       </c>
       <c r="H27" t="n">
-        <v>313639.98</v>
+        <v>190279.01</v>
       </c>
       <c r="I27" t="n">
-        <v>314990.59</v>
+        <v>191552.76</v>
       </c>
       <c r="J27" t="n">
-        <v>306694.7</v>
+        <v>200690.53</v>
       </c>
       <c r="K27" t="n">
-        <v>304782.96</v>
+        <v>200739.79</v>
       </c>
       <c r="L27" t="n">
-        <v>282284.23</v>
+        <v>200555.13</v>
       </c>
       <c r="M27" t="n">
-        <v>275186.63</v>
+        <v>213836</v>
+      </c>
+      <c r="N27" t="n">
+        <v>246919.66</v>
+      </c>
+      <c r="O27" t="n">
+        <v>248252</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>Fima PB Acciones</t>
+          <t>Fima Acciones</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>240254.59</v>
+        <v>275186.63</v>
       </c>
       <c r="C28" t="n">
-        <v>252311.39</v>
+        <v>274750.39</v>
       </c>
       <c r="D28" t="n">
-        <v>251454.83</v>
+        <v>273728.96</v>
       </c>
       <c r="E28" t="n">
-        <v>266538.16</v>
+        <v>273010.52</v>
       </c>
       <c r="F28" t="n">
-        <v>268480.2</v>
+        <v>287344.33</v>
       </c>
       <c r="G28" t="n">
-        <v>288461.74</v>
+        <v>295529.49</v>
       </c>
       <c r="H28" t="n">
-        <v>338362.09</v>
+        <v>290322.05</v>
       </c>
       <c r="I28" t="n">
-        <v>358740.75</v>
+        <v>306082.23</v>
       </c>
       <c r="J28" t="n">
-        <v>358822.05</v>
+        <v>314688.4</v>
       </c>
       <c r="K28" t="n">
-        <v>358595.31</v>
+        <v>318529.12</v>
       </c>
       <c r="L28" t="n">
-        <v>338625.8</v>
+        <v>349050.05</v>
       </c>
       <c r="M28" t="n">
-        <v>338367.48</v>
+        <v>392393.55</v>
+      </c>
+      <c r="N28" t="n">
+        <v>415179.81</v>
+      </c>
+      <c r="O28" t="n">
+        <v>415606.81</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>Gainvest Renta Variable</t>
+          <t>Fima PB Acciones</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>328136.08</v>
+        <v>338367.48</v>
       </c>
       <c r="C29" t="n">
-        <v>328105.35</v>
+        <v>313561.59</v>
       </c>
       <c r="D29" t="n">
-        <v>282961.03</v>
+        <v>310318.37</v>
       </c>
       <c r="E29" t="n">
-        <v>270838.26</v>
+        <v>286440.29</v>
       </c>
       <c r="F29" t="n">
-        <v>270950.98</v>
+        <v>290605.99</v>
       </c>
       <c r="G29" t="n">
-        <v>270905.88</v>
+        <v>286961.36</v>
       </c>
       <c r="H29" t="n">
-        <v>174822.89</v>
+        <v>287212.05</v>
       </c>
       <c r="I29" t="n">
-        <v>174851.76</v>
+        <v>296010.3</v>
       </c>
       <c r="J29" t="n">
-        <v>55165.9</v>
+        <v>201386.39</v>
       </c>
       <c r="K29" t="n">
-        <v>30164.9</v>
+        <v>201287.26</v>
       </c>
       <c r="L29" t="n">
-        <v>23663.77</v>
+        <v>233096.58</v>
       </c>
       <c r="M29" t="n">
-        <v>23749.6</v>
+        <v>233210.93</v>
+      </c>
+      <c r="N29" t="n">
+        <v>236175.33</v>
+      </c>
+      <c r="O29" t="n">
+        <v>226440.98</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>Galileo Acciones</t>
+          <t>Gainvest Renta Variable</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>2070784.18</v>
+        <v>23749.6</v>
       </c>
       <c r="C30" t="n">
-        <v>2149672.19</v>
+        <v>23716.51</v>
       </c>
       <c r="D30" t="n">
-        <v>2150227.08</v>
+        <v>23623.24</v>
       </c>
       <c r="E30" t="n">
-        <v>2150216.36</v>
+        <v>23760.71</v>
       </c>
       <c r="F30" t="n">
-        <v>2000377.14</v>
+        <v>23757.32</v>
       </c>
       <c r="G30" t="n">
-        <v>1999371.14</v>
+        <v>23783.04</v>
       </c>
       <c r="H30" t="n">
-        <v>2000484.03</v>
+        <v>23642.53</v>
       </c>
       <c r="I30" t="n">
-        <v>1999814.9</v>
+        <v>23642.11</v>
       </c>
       <c r="J30" t="n">
-        <v>2001009.31</v>
+        <v>23643.06</v>
       </c>
       <c r="K30" t="n">
-        <v>2199324.4</v>
+        <v>23777.59</v>
       </c>
       <c r="L30" t="n">
-        <v>2200855.55</v>
+        <v>23748.09</v>
       </c>
       <c r="M30" t="n">
-        <v>2200107.42</v>
+        <v>23715.16</v>
+      </c>
+      <c r="N30" t="n">
+        <v>23705.99</v>
+      </c>
+      <c r="O30" t="n">
+        <v>23655.21</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>Goal Acciones Argentinas</t>
+          <t>Galileo Acciones</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>33770.96</v>
+        <v>2200107.42</v>
       </c>
       <c r="C31" t="n">
-        <v>38760.08</v>
+        <v>2200962.57</v>
       </c>
       <c r="D31" t="n">
-        <v>36724.08</v>
+        <v>2190909.72</v>
       </c>
       <c r="E31" t="n">
-        <v>39780.55</v>
+        <v>2199510.04</v>
       </c>
       <c r="F31" t="n">
-        <v>39762.86</v>
+        <v>1999946.29</v>
       </c>
       <c r="G31" t="n">
-        <v>39770.59</v>
+        <v>2000803.15</v>
       </c>
       <c r="H31" t="n">
-        <v>39755.27</v>
+        <v>1999148.4</v>
       </c>
       <c r="I31" t="n">
-        <v>45737.02</v>
+        <v>2000276.43</v>
       </c>
       <c r="J31" t="n">
-        <v>45724.6</v>
+        <v>2000753.48</v>
       </c>
       <c r="K31" t="n">
-        <v>45754.44</v>
+        <v>1998948.98</v>
       </c>
       <c r="L31" t="n">
-        <v>45761.4</v>
+        <v>1998896.5</v>
       </c>
       <c r="M31" t="n">
-        <v>45778.99</v>
+        <v>1999313.13</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1999639.3</v>
+      </c>
+      <c r="O31" t="n">
+        <v>1999603.26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>Goal acciones plus</t>
+          <t>Goal Acciones Argentinas</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>6549.5</v>
+        <v>45778.99</v>
       </c>
       <c r="C32" t="n">
-        <v>6539.17</v>
+        <v>45770.05</v>
       </c>
       <c r="D32" t="n">
-        <v>6544.97</v>
+        <v>45582.82</v>
       </c>
       <c r="E32" t="n">
-        <v>6550.18</v>
+        <v>45757.12</v>
       </c>
       <c r="F32" t="n">
-        <v>6541.84</v>
+        <v>45737.42</v>
       </c>
       <c r="G32" t="n">
-        <v>6546.52</v>
+        <v>45756.38</v>
       </c>
       <c r="H32" t="n">
-        <v>6542.76</v>
+        <v>45729.37</v>
       </c>
       <c r="I32" t="n">
-        <v>6553.34</v>
+        <v>45758.3</v>
       </c>
       <c r="J32" t="n">
-        <v>6543.55</v>
+        <v>45757.67</v>
       </c>
       <c r="K32" t="n">
-        <v>6545.54</v>
+        <v>44630.31</v>
       </c>
       <c r="L32" t="n">
-        <v>6536.51</v>
+        <v>45735.66</v>
       </c>
       <c r="M32" t="n">
-        <v>6541.88</v>
+        <v>45727.37</v>
+      </c>
+      <c r="N32" t="n">
+        <v>45726.09</v>
+      </c>
+      <c r="O32" t="n">
+        <v>45717.38</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Argentinas</t>
+          <t>Goal acciones plus</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>190537.56</v>
+        <v>6541.88</v>
       </c>
       <c r="C33" t="n">
-        <v>190593.79</v>
+        <v>6552.48</v>
       </c>
       <c r="D33" t="n">
-        <v>182400.56</v>
+        <v>6516.39</v>
       </c>
       <c r="E33" t="n">
-        <v>182586.53</v>
+        <v>6543.58</v>
       </c>
       <c r="F33" t="n">
-        <v>172587.89</v>
+        <v>6550.08</v>
       </c>
       <c r="G33" t="n">
-        <v>167465.28</v>
+        <v>6543.47</v>
       </c>
       <c r="H33" t="n">
-        <v>167389.87</v>
+        <v>6555.94</v>
       </c>
       <c r="I33" t="n">
-        <v>152417.66</v>
+        <v>6556.3</v>
       </c>
       <c r="J33" t="n">
-        <v>137524.84</v>
+        <v>6538.64</v>
       </c>
       <c r="K33" t="n">
-        <v>133508.82</v>
+        <v>6380.55</v>
       </c>
       <c r="L33" t="n">
-        <v>133447.97</v>
+        <v>6553.84</v>
       </c>
       <c r="M33" t="n">
-        <v>133435.68</v>
+        <v>6534.15</v>
+      </c>
+      <c r="N33" t="n">
+        <v>6539.04</v>
+      </c>
+      <c r="O33" t="n">
+        <v>6552.62</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>HF Acciones Lideres</t>
+          <t>HF Acciones Argentinas</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>243337.28</v>
+        <v>133435.68</v>
       </c>
       <c r="C34" t="n">
-        <v>243463.29</v>
+        <v>128510.62</v>
       </c>
       <c r="D34" t="n">
-        <v>199188.79</v>
+        <v>128053.48</v>
       </c>
       <c r="E34" t="n">
-        <v>199419.57</v>
+        <v>128506.47</v>
       </c>
       <c r="F34" t="n">
-        <v>199428.85</v>
+        <v>128487.36</v>
       </c>
       <c r="G34" t="n">
-        <v>199082.96</v>
+        <v>121451.61</v>
       </c>
       <c r="H34" t="n">
-        <v>204120.99</v>
+        <v>121446.27</v>
       </c>
       <c r="I34" t="n">
-        <v>204413.92</v>
+        <v>116496.45</v>
       </c>
       <c r="J34" t="n">
-        <v>204380.52</v>
+        <v>116495.26</v>
       </c>
       <c r="K34" t="n">
-        <v>204309.66</v>
+        <v>116466.37</v>
       </c>
       <c r="L34" t="n">
-        <v>194427.05</v>
+        <v>116387.44</v>
       </c>
       <c r="M34" t="n">
-        <v>194376.22</v>
+        <v>116492.36</v>
+      </c>
+      <c r="N34" t="n">
+        <v>116405.34</v>
+      </c>
+      <c r="O34" t="n">
+        <v>116443.06</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>IAM Renta Variable</t>
+          <t>HF Acciones Lideres</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>55055.52</v>
+        <v>194376.22</v>
       </c>
       <c r="C35" t="n">
-        <v>57695.35</v>
+        <v>184182.39</v>
       </c>
       <c r="D35" t="n">
-        <v>74078.03</v>
+        <v>183553.36</v>
       </c>
       <c r="E35" t="n">
-        <v>77494.33</v>
+        <v>184124.98</v>
       </c>
       <c r="F35" t="n">
-        <v>76845.96000000001</v>
+        <v>184392.11</v>
       </c>
       <c r="G35" t="n">
-        <v>76782.53</v>
+        <v>192448.04</v>
       </c>
       <c r="H35" t="n">
-        <v>91274.25</v>
+        <v>192397.26</v>
       </c>
       <c r="I35" t="n">
-        <v>91258.61</v>
+        <v>192053.91</v>
       </c>
       <c r="J35" t="n">
-        <v>91153.81</v>
+        <v>192342.26</v>
       </c>
       <c r="K35" t="n">
-        <v>91206.39999999999</v>
+        <v>192266.31</v>
       </c>
       <c r="L35" t="n">
-        <v>90611.62</v>
+        <v>197167.27</v>
       </c>
       <c r="M35" t="n">
-        <v>79838.49000000001</v>
+        <v>218313.57</v>
+      </c>
+      <c r="N35" t="n">
+        <v>218197.69</v>
+      </c>
+      <c r="O35" t="n">
+        <v>218102.25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>IEB Value</t>
+          <t>IAM Renta Variable</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>12858.09</v>
+        <v>79838.49000000001</v>
       </c>
       <c r="C36" t="n">
-        <v>12855.73</v>
+        <v>79768.75999999999</v>
       </c>
       <c r="D36" t="n">
-        <v>14254.6</v>
+        <v>77272.5</v>
       </c>
       <c r="E36" t="n">
-        <v>14260.34</v>
+        <v>76868.92</v>
       </c>
       <c r="F36" t="n">
-        <v>14266.11</v>
+        <v>78178.02</v>
       </c>
       <c r="G36" t="n">
-        <v>14261.59</v>
+        <v>82918.75999999999</v>
       </c>
       <c r="H36" t="n">
-        <v>14263.76</v>
+        <v>85366.12</v>
       </c>
       <c r="I36" t="n">
-        <v>14261.1</v>
+        <v>88330.06</v>
       </c>
       <c r="J36" t="n">
-        <v>14257.55</v>
+        <v>89871.13</v>
       </c>
       <c r="K36" t="n">
-        <v>14257.64</v>
+        <v>94405.82000000001</v>
       </c>
       <c r="L36" t="n">
-        <v>8859.559999999999</v>
+        <v>94374.52</v>
       </c>
       <c r="M36" t="n">
-        <v>8863.08</v>
+        <v>109724.16</v>
+      </c>
+      <c r="N36" t="n">
+        <v>109757.45</v>
+      </c>
+      <c r="O36" t="n">
+        <v>112463.49</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>Lombardi</t>
+          <t>IEB Value</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>36730.42</v>
+        <v>8863.08</v>
       </c>
       <c r="C37" t="n">
-        <v>41466</v>
+        <v>8121.37</v>
       </c>
       <c r="D37" t="n">
-        <v>43975.47</v>
+        <v>8093.85</v>
       </c>
       <c r="E37" t="n">
-        <v>50224.11</v>
+        <v>8116.42</v>
       </c>
       <c r="F37" t="n">
-        <v>50431.41</v>
+        <v>8125.22</v>
       </c>
       <c r="G37" t="n">
-        <v>50430.25</v>
+        <v>8115.2</v>
       </c>
       <c r="H37" t="n">
-        <v>50410.3</v>
+        <v>8119.82</v>
       </c>
       <c r="I37" t="n">
-        <v>50409.6</v>
+        <v>8114.47</v>
       </c>
       <c r="J37" t="n">
-        <v>49001.96</v>
+        <v>8124.25</v>
       </c>
       <c r="K37" t="n">
-        <v>47476.86</v>
+        <v>8124.13</v>
       </c>
       <c r="L37" t="n">
-        <v>46086.63</v>
+        <v>8117.95</v>
       </c>
       <c r="M37" t="n">
-        <v>45974.75</v>
+        <v>8121.45</v>
+      </c>
+      <c r="N37" t="n">
+        <v>8123.76</v>
+      </c>
+      <c r="O37" t="n">
+        <v>8114.96</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>MAF</t>
+          <t>Lombardi</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>58335.01</v>
+        <v>45974.75</v>
       </c>
       <c r="C38" t="n">
-        <v>58295.6</v>
+        <v>44520.15</v>
       </c>
       <c r="D38" t="n">
-        <v>58328.41</v>
+        <v>44377.97</v>
       </c>
       <c r="E38" t="n">
-        <v>58361.8</v>
+        <v>45994.99</v>
       </c>
       <c r="F38" t="n">
-        <v>58297.58</v>
+        <v>46018.27</v>
       </c>
       <c r="G38" t="n">
-        <v>58363.24</v>
+        <v>48552.79</v>
       </c>
       <c r="H38" t="n">
-        <v>58348.16</v>
+        <v>48477.33</v>
       </c>
       <c r="I38" t="n">
-        <v>58330</v>
+        <v>48476.8</v>
       </c>
       <c r="J38" t="n">
-        <v>58321.73</v>
+        <v>48442.48</v>
       </c>
       <c r="K38" t="n">
-        <v>58355.16</v>
+        <v>48516.87</v>
       </c>
       <c r="L38" t="n">
-        <v>58341.68</v>
+        <v>51979.77</v>
       </c>
       <c r="M38" t="n">
-        <v>58336.03</v>
+        <v>61516.71</v>
+      </c>
+      <c r="N38" t="n">
+        <v>52522.62</v>
+      </c>
+      <c r="O38" t="n">
+        <v>52554.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>Megainver</t>
+          <t>MAF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>53903.51</v>
+        <v>58336.03</v>
       </c>
       <c r="C39" t="n">
-        <v>53920.24</v>
+        <v>58366.28</v>
       </c>
       <c r="D39" t="n">
-        <v>39432.72</v>
+        <v>58119.53</v>
       </c>
       <c r="E39" t="n">
-        <v>42387.34</v>
+        <v>69105.07000000001</v>
       </c>
       <c r="F39" t="n">
-        <v>42401.1</v>
+        <v>69034.39</v>
       </c>
       <c r="G39" t="n">
-        <v>42420.56</v>
+        <v>69030.46000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>42383.75</v>
+        <v>69054.5</v>
       </c>
       <c r="I39" t="n">
-        <v>42403.05</v>
+        <v>69035.14999999999</v>
       </c>
       <c r="J39" t="n">
-        <v>42379.61</v>
+        <v>69034.67999999999</v>
       </c>
       <c r="K39" t="n">
-        <v>42376.41</v>
+        <v>69106.56</v>
       </c>
       <c r="L39" t="n">
-        <v>42432.19</v>
+        <v>69074.81</v>
       </c>
       <c r="M39" t="n">
-        <v>42410.13</v>
+        <v>69081.25999999999</v>
+      </c>
+      <c r="N39" t="n">
+        <v>69062.36</v>
+      </c>
+      <c r="O39" t="n">
+        <v>69109.27</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>Pellegrini Acciones</t>
+          <t>Megainver</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>84374.39</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>42410.13</v>
+      </c>
+      <c r="C40" t="n">
+        <v>42375.79</v>
+      </c>
       <c r="D40" t="n">
-        <v>96852.81</v>
+        <v>42256.94</v>
       </c>
       <c r="E40" t="n">
-        <v>96876.12</v>
+        <v>42425.33</v>
       </c>
       <c r="F40" t="n">
-        <v>96948.22</v>
+        <v>42422.2</v>
       </c>
       <c r="G40" t="n">
-        <v>96867</v>
+        <v>38831.1</v>
       </c>
       <c r="H40" t="n">
-        <v>96771.57000000001</v>
+        <v>36621.99</v>
       </c>
       <c r="I40" t="n">
-        <v>96766.89</v>
+        <v>35188.53</v>
       </c>
       <c r="J40" t="n">
-        <v>96902.25999999999</v>
+        <v>27508.75</v>
       </c>
       <c r="K40" t="n">
-        <v>96873.39999999999</v>
+        <v>23731.23</v>
       </c>
       <c r="L40" t="n">
-        <v>96883.75</v>
+        <v>23694.15</v>
       </c>
       <c r="M40" t="n">
-        <v>96881.86</v>
+        <v>23733.98</v>
+      </c>
+      <c r="N40" t="n">
+        <v>33594.26</v>
+      </c>
+      <c r="O40" t="n">
+        <v>33629.39</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>Premier Renta Variable</t>
+          <t>Pellegrini Acciones</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>62927.31</v>
+        <v>96881.86</v>
       </c>
       <c r="C41" t="n">
-        <v>62929.25</v>
+        <v>96808.62</v>
       </c>
       <c r="D41" t="n">
-        <v>70910.78999999999</v>
+        <v>96525.56</v>
       </c>
       <c r="E41" t="n">
-        <v>72882.78999999999</v>
+        <v>96806.5</v>
       </c>
       <c r="F41" t="n">
-        <v>84947.21000000001</v>
+        <v>96798.89</v>
       </c>
       <c r="G41" t="n">
-        <v>76924.66</v>
+        <v>96828.5</v>
       </c>
       <c r="H41" t="n">
-        <v>85926.32000000001</v>
+        <v>96926.75999999999</v>
       </c>
       <c r="I41" t="n">
-        <v>80915.59</v>
+        <v>96805.42</v>
       </c>
       <c r="J41" t="n">
-        <v>77946.39999999999</v>
+        <v>96866.32000000001</v>
       </c>
       <c r="K41" t="n">
-        <v>70862.88</v>
+        <v>96945.66</v>
       </c>
       <c r="L41" t="n">
-        <v>72369.96000000001</v>
+        <v>96788.02</v>
       </c>
       <c r="M41" t="n">
-        <v>72486.10000000001</v>
+        <v>96769.17999999999</v>
+      </c>
+      <c r="N41" t="n">
+        <v>114778.53</v>
+      </c>
+      <c r="O41" t="n">
+        <v>114781.52</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>Quinquela Acciones</t>
+          <t>Premier Renta Variable</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>172138.29</v>
+        <v>72486.10000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>172156.64</v>
+        <v>75386.81</v>
       </c>
       <c r="D42" t="n">
-        <v>172307.03</v>
+        <v>75185.59</v>
       </c>
       <c r="E42" t="n">
-        <v>172237.48</v>
+        <v>75454.14</v>
       </c>
       <c r="F42" t="n">
-        <v>172128.42</v>
+        <v>77405.53</v>
       </c>
       <c r="G42" t="n">
-        <v>160794.25</v>
+        <v>80393.50999999999</v>
       </c>
       <c r="H42" t="n">
-        <v>160812.17</v>
+        <v>75487.14</v>
       </c>
       <c r="I42" t="n">
-        <v>160808.19</v>
+        <v>75427.67</v>
       </c>
       <c r="J42" t="n">
-        <v>160748.56</v>
+        <v>75487.39</v>
       </c>
       <c r="K42" t="n">
-        <v>160759.53</v>
+        <v>75440.09</v>
       </c>
       <c r="L42" t="n">
-        <v>160716.58</v>
+        <v>78383.85000000001</v>
       </c>
       <c r="M42" t="n">
-        <v>160811.86</v>
+        <v>83366.35000000001</v>
+      </c>
+      <c r="N42" t="n">
+        <v>87344.53999999999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>87476.66</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>Rofex 20 Renta Variable</t>
+          <t>Quinquela Acciones</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>110024.63</v>
+        <v>160811.86</v>
       </c>
       <c r="C43" t="n">
-        <v>110045.92</v>
+        <v>160754.51</v>
       </c>
       <c r="D43" t="n">
-        <v>103511.47</v>
+        <v>160088.4</v>
       </c>
       <c r="E43" t="n">
-        <v>101587.13</v>
+        <v>148322.45</v>
       </c>
       <c r="F43" t="n">
-        <v>109792.06</v>
+        <v>148253.67</v>
       </c>
       <c r="G43" t="n">
-        <v>111043.53</v>
+        <v>135477.09</v>
       </c>
       <c r="H43" t="n">
-        <v>111375.39</v>
+        <v>135480.73</v>
       </c>
       <c r="I43" t="n">
-        <v>111358.07</v>
+        <v>135305.43</v>
       </c>
       <c r="J43" t="n">
-        <v>111272.83</v>
+        <v>106560.77</v>
       </c>
       <c r="K43" t="n">
-        <v>111342.51</v>
+        <v>91840.35000000001</v>
       </c>
       <c r="L43" t="n">
-        <v>111347.45</v>
+        <v>91727.34</v>
       </c>
       <c r="M43" t="n">
-        <v>108150.53</v>
+        <v>91925.67</v>
+      </c>
+      <c r="N43" t="n">
+        <v>129637.91</v>
+      </c>
+      <c r="O43" t="n">
+        <v>114452.32</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>SBS Acciones Argentina</t>
+          <t>Rofex 20 Renta Variable</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>119468.33</v>
+        <v>108150.53</v>
       </c>
       <c r="C44" t="n">
-        <v>148621.13</v>
+        <v>102385.25</v>
       </c>
       <c r="D44" t="n">
-        <v>148597.38</v>
+        <v>101999.51</v>
       </c>
       <c r="E44" t="n">
-        <v>148483.45</v>
+        <v>103404.46</v>
       </c>
       <c r="F44" t="n">
-        <v>148251.15</v>
+        <v>102255.27</v>
       </c>
       <c r="G44" t="n">
-        <v>148505.25</v>
+        <v>111316.74</v>
       </c>
       <c r="H44" t="n">
-        <v>148687.85</v>
+        <v>111396.02</v>
       </c>
       <c r="I44" t="n">
-        <v>148222.86</v>
+        <v>111322.01</v>
       </c>
       <c r="J44" t="n">
-        <v>148443.41</v>
+        <v>111245.35</v>
       </c>
       <c r="K44" t="n">
-        <v>148250.74</v>
+        <v>111319.72</v>
       </c>
       <c r="L44" t="n">
-        <v>141741.46</v>
+        <v>110183.15</v>
       </c>
       <c r="M44" t="n">
-        <v>141340.28</v>
+        <v>104134.49</v>
+      </c>
+      <c r="N44" t="n">
+        <v>102493.11</v>
+      </c>
+      <c r="O44" t="n">
+        <v>103371.15</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>Schroeder RV</t>
+          <t>SBS Acciones Argentina</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>669264.28</v>
+        <v>141340.28</v>
       </c>
       <c r="C45" t="n">
-        <v>668821.3100000001</v>
+        <v>141659.6</v>
       </c>
       <c r="D45" t="n">
-        <v>634406.28</v>
+        <v>140758.21</v>
       </c>
       <c r="E45" t="n">
-        <v>526647.15</v>
+        <v>141393.48</v>
       </c>
       <c r="F45" t="n">
-        <v>526202.4300000001</v>
+        <v>141634.74</v>
       </c>
       <c r="G45" t="n">
-        <v>522102.04</v>
+        <v>141703.11</v>
       </c>
       <c r="H45" t="n">
-        <v>527478.3</v>
+        <v>141606.56</v>
       </c>
       <c r="I45" t="n">
-        <v>521544.61</v>
+        <v>141768.52</v>
       </c>
       <c r="J45" t="n">
-        <v>526655.25</v>
+        <v>141313.79</v>
       </c>
       <c r="K45" t="n">
-        <v>526262.5699999999</v>
+        <v>141724.03</v>
       </c>
       <c r="L45" t="n">
-        <v>526213.1899999999</v>
+        <v>141592.42</v>
       </c>
       <c r="M45" t="n">
-        <v>526899.37</v>
+        <v>172602.48</v>
+      </c>
+      <c r="N45" t="n">
+        <v>172935.22</v>
+      </c>
+      <c r="O45" t="n">
+        <v>173045.47</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>Supefondo RV</t>
+          <t>Schroeder RV</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>514459.8</v>
+        <v>526899.37</v>
       </c>
       <c r="C46" t="n">
-        <v>625236.7</v>
+        <v>527162.2</v>
       </c>
       <c r="D46" t="n">
-        <v>914059.45</v>
-      </c>
-      <c r="E46" t="inlineStr"/>
-      <c r="F46" t="inlineStr"/>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
+        <v>524335</v>
+      </c>
+      <c r="E46" t="n">
+        <v>565490.22</v>
+      </c>
+      <c r="F46" t="n">
+        <v>527913.88</v>
+      </c>
+      <c r="G46" t="n">
+        <v>527726.79</v>
+      </c>
+      <c r="H46" t="n">
+        <v>528224.0600000001</v>
+      </c>
+      <c r="I46" t="n">
+        <v>528576.1800000001</v>
+      </c>
+      <c r="J46" t="n">
+        <v>528712.8199999999</v>
+      </c>
+      <c r="K46" t="n">
+        <v>528163.91</v>
+      </c>
+      <c r="L46" t="n">
+        <v>527898.61</v>
+      </c>
+      <c r="M46" t="n">
+        <v>528423.14</v>
+      </c>
+      <c r="N46" t="n">
+        <v>528305.16</v>
+      </c>
+      <c r="O46" t="n">
+        <v>528479.33</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -2397,40 +2703,46 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>1098686.84</v>
+        <v>1308688.55</v>
       </c>
       <c r="C47" t="n">
-        <v>1099068.37</v>
+        <v>1308674.72</v>
       </c>
       <c r="D47" t="n">
-        <v>1098054.74</v>
+        <v>1303694.21</v>
       </c>
       <c r="E47" t="n">
-        <v>1098877.42</v>
+        <v>1432412.69</v>
       </c>
       <c r="F47" t="n">
-        <v>1138386.93</v>
+        <v>1432627.89</v>
       </c>
       <c r="G47" t="n">
-        <v>1137706.34</v>
+        <v>1557020.2</v>
       </c>
       <c r="H47" t="n">
-        <v>1204415.8</v>
+        <v>1558067.71</v>
       </c>
       <c r="I47" t="n">
-        <v>1270311.97</v>
+        <v>1557548.72</v>
       </c>
       <c r="J47" t="n">
-        <v>1309163.05</v>
+        <v>1558089.72</v>
       </c>
       <c r="K47" t="n">
-        <v>1309074.19</v>
+        <v>1557424.71</v>
       </c>
       <c r="L47" t="n">
-        <v>1308712.82</v>
+        <v>1558079.71</v>
       </c>
       <c r="M47" t="n">
-        <v>1308688.55</v>
+        <v>1683960.78</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1684649.1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>1683649.44</v>
       </c>
     </row>
     <row r="48">
@@ -2440,151 +2752,144 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>31412.83</v>
+        <v>38683.42</v>
       </c>
       <c r="C48" t="n">
-        <v>38662.05</v>
+        <v>38641.8</v>
       </c>
       <c r="D48" t="n">
-        <v>38658.6</v>
+        <v>38464.34</v>
       </c>
       <c r="E48" t="n">
-        <v>38638.69</v>
+        <v>38626.52</v>
       </c>
       <c r="F48" t="n">
-        <v>38619.29</v>
+        <v>38626.51</v>
       </c>
       <c r="G48" t="n">
-        <v>38611.24</v>
+        <v>38617.99</v>
       </c>
       <c r="H48" t="n">
-        <v>38613.5</v>
+        <v>38643.13</v>
       </c>
       <c r="I48" t="n">
-        <v>38652.85</v>
+        <v>38619.56</v>
       </c>
       <c r="J48" t="n">
-        <v>38601.8</v>
+        <v>44525.14</v>
       </c>
       <c r="K48" t="n">
-        <v>38657.8</v>
+        <v>44436.18</v>
       </c>
       <c r="L48" t="n">
-        <v>38677.64</v>
+        <v>44457.33</v>
       </c>
       <c r="M48" t="n">
-        <v>38683.42</v>
+        <v>44449.75</v>
+      </c>
+      <c r="N48" t="n">
+        <v>44442.61</v>
+      </c>
+      <c r="O48" t="n">
+        <v>51912.12</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>Toronto trust Argy</t>
+          <t>avg</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15230.95</v>
+        <v>219131.26</v>
       </c>
       <c r="C49" t="n">
-        <v>15184.49</v>
+        <v>217669.06</v>
       </c>
       <c r="D49" t="n">
-        <v>24722.09</v>
-      </c>
-      <c r="E49" t="inlineStr"/>
-      <c r="F49" t="inlineStr"/>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
+        <v>216244.55</v>
+      </c>
+      <c r="E49" t="n">
+        <v>220213.77</v>
+      </c>
+      <c r="F49" t="n">
+        <v>216141.19</v>
+      </c>
+      <c r="G49" t="n">
+        <v>219760.77</v>
+      </c>
+      <c r="H49" t="n">
+        <v>220320.62</v>
+      </c>
+      <c r="I49" t="n">
+        <v>216564.35</v>
+      </c>
+      <c r="J49" t="n">
+        <v>216369.02</v>
+      </c>
+      <c r="K49" t="n">
+        <v>216701</v>
+      </c>
+      <c r="L49" t="n">
+        <v>219140.95</v>
+      </c>
+      <c r="M49" t="n">
+        <v>226883.87</v>
+      </c>
+      <c r="N49" t="n">
+        <v>230613.25</v>
+      </c>
+      <c r="O49" t="n">
+        <v>230716.72</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>avg</t>
+          <t>total</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>216889.38</v>
+        <v>10080037.83</v>
       </c>
       <c r="C50" t="n">
-        <v>245189.98</v>
+        <v>10012776.89</v>
       </c>
       <c r="D50" t="n">
-        <v>229981.14</v>
+        <v>9947249.48</v>
       </c>
       <c r="E50" t="n">
-        <v>220217.43</v>
+        <v>10129833.45</v>
       </c>
       <c r="F50" t="n">
-        <v>218421.26</v>
+        <v>9942494.77</v>
       </c>
       <c r="G50" t="n">
-        <v>218060.27</v>
+        <v>10108995.48</v>
       </c>
       <c r="H50" t="n">
-        <v>219306.1</v>
+        <v>10134748.4</v>
       </c>
       <c r="I50" t="n">
-        <v>219861.73</v>
+        <v>10178524.3</v>
       </c>
       <c r="J50" t="n">
-        <v>217824.68</v>
+        <v>10169343.91</v>
       </c>
       <c r="K50" t="n">
-        <v>221712.76</v>
+        <v>10184946.91</v>
       </c>
       <c r="L50" t="n">
-        <v>219122.43</v>
+        <v>10299624.88</v>
       </c>
       <c r="M50" t="n">
-        <v>219131.26</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="inlineStr">
-        <is>
-          <t>total</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>10410690.33</v>
-      </c>
-      <c r="C51" t="n">
-        <v>9072029.390000001</v>
-      </c>
-      <c r="D51" t="n">
-        <v>11039094.74</v>
-      </c>
-      <c r="E51" t="n">
-        <v>10130001.57</v>
-      </c>
-      <c r="F51" t="n">
-        <v>10047377.94</v>
-      </c>
-      <c r="G51" t="n">
-        <v>10030772.46</v>
-      </c>
-      <c r="H51" t="n">
-        <v>10088080.71</v>
-      </c>
-      <c r="I51" t="n">
-        <v>10113639.43</v>
-      </c>
-      <c r="J51" t="n">
-        <v>10019935.12</v>
-      </c>
-      <c r="K51" t="n">
-        <v>10198787.1</v>
-      </c>
-      <c r="L51" t="n">
-        <v>10079631.58</v>
-      </c>
-      <c r="M51" t="n">
-        <v>10080037.83</v>
+        <v>10663541.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>10838822.76</v>
+      </c>
+      <c r="O50" t="n">
+        <v>10843685.78</v>
       </c>
     </row>
   </sheetData>
